--- a/data/raw_data/positive_cleanup.xlsx
+++ b/data/raw_data/positive_cleanup.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1089" uniqueCount="851">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1778" uniqueCount="1421">
   <si>
     <t>trichloroethylene</t>
   </si>
@@ -1905,9 +1905,6 @@
     <t>unsubstituted 1,2,4-triazole can be prepared from thiosemicarbazide by acyation with formic acid and subsequent cyclization of 1-formyl-3-thiosemicarbazide into 1,2,4-triazole-3(5)-thiol</t>
   </si>
   <si>
-    <t xml:space="preserve">4-nitrochlorobenzene is prepared industrially by nitration of chlorobenzene:                                    c           l                        c                            6                                                h         </t>
-  </si>
-  <si>
     <t>the reduction of nitrobenzene to aniline was first performed by nikolay zinin in 1842 using inorganic sulfide as a reductant</t>
   </si>
   <si>
@@ -2578,6 +2575,1719 @@
   </si>
   <si>
     <t>the process of this invention where an aqueous solution of urea is continuously fed into a heated reactor and a continuous stream of gaseous ammonia, carbon dioxide and water produced and discharged without any urea or ammonium salts for use by both scr and sncr nitrogen oxides reduction processes, or for other uses of ammonia, is not disclosed by von harpe.</t>
+  </si>
+  <si>
+    <t>4-nitrochlorobenzene is prepared industrially by nitration of chlorobenzene</t>
+  </si>
+  <si>
+    <t>for example in a batch reactor system when ethylene and carbon monoxide are fed in a stoichiometric excess to water some propionic anhydride may be co-produced with propionic acid.</t>
+  </si>
+  <si>
+    <t>the present invention is based upon the production of propionic acid by the reaction of ethylene, carbon monoxide and water.</t>
+  </si>
+  <si>
+    <t>alternatively, propionic acid may be produced if desired via reaction of ethylene with carbon monoxide and water in the vapor phase over the cobalt containing catalyst systems described above, dispersed upon inert supports.</t>
+  </si>
+  <si>
+    <t>a one step, low-pressure process for the preparation of propionic acid which comprises reacting ethylene with carbon monoxide and water at a temperature of 50??c to 300??c and a partial pressure of carbon monoxide of from 1 to 1500 psia in the presence of 1.</t>
+  </si>
+  <si>
+    <t>although the ethylene-water reaction stoichiometry is 1:1 the preferred catalyst system containing the critical proportions of iodide and cobalt metal component is comprised of an aqueous solution of the carboxylic acid, which may be the same or different from the propionic acid product as discussed above, wherein the water concentration is typically from 0.1% to 25% by weight of the catalyst solution and may vary within the broad range of from 0.1% to 90% by weight.</t>
+  </si>
+  <si>
+    <t>more particularly, it relates to a process for the reaction of ethylene with carbon monoxide and water in the presence of catalyst compositions essentially comprising critical ratios of cobalt compounds and complexes and an iodide promoter to yield propionic acid selectively and efficiently at mild pressure.</t>
+  </si>
+  <si>
+    <t>thus conversion of methionine to ethylene in green and half-ripe tomato tissue is increased in the presence of propionic acid.</t>
+  </si>
+  <si>
+    <t>radiation telomerization of ethylene by propionic acid.</t>
+  </si>
+  <si>
+    <t>stimulation of ethylene production in tomato tissue by propionic acid skip to main page content home about submit subscriptions advertise archive contact us quick search [advanced] author: (e.g.</t>
+  </si>
+  <si>
+    <t>commercial methyl formate is produced from methanol with carbon monoxide in the presence of strong base.</t>
+  </si>
+  <si>
+    <t>the yields of methyl formate which are obtained in the process of the present invention are at least 90 mol %, and even 95 mol percent, referred to the carbon monoxide, when pure carbon monoxide is used, and they are practically 100 mol percent, referred to the methanol used.</t>
+  </si>
+  <si>
+    <t>the methyl formate is separated from the reaction mixture by distillation as in example 1 and the methanol and sodium methoxide are recycled to the reaction after the precipitate of sodium formate has been separated by filtration.</t>
+  </si>
+  <si>
+    <t>the same conversion of methanol into methyl formate as in example 1 is observed but the yield referred to the carbon monoxide is only 38.4 mol percent.</t>
+  </si>
+  <si>
+    <t>the catalyst and the unconverted methanol separated from the methyl formate by distillation at the outlet of the apparatus are reused in the system.</t>
+  </si>
+  <si>
+    <t>thus, it can be seen that, except when the residual gaseous mixture of the synthesis of methyl formate is used for another synthesis, for example that of methanol, it is necessary to recycle the carbon monoxide in order to avoid the loss of a considerable quantity thereof, this being due to the short contact time between the gaseous mixture and the liquid, so that there is a low conversion of carbon monoxide per pass.</t>
+  </si>
+  <si>
+    <t>the reaction order with respect to methanol was found to be approximately 0.5 for both catalysts whilst hydrogen and methyl formate both inhibited the reaction significantly.</t>
+  </si>
+  <si>
+    <t>methyl formate can be produced by the processes, such as esterification of methanol with formic acid, carbonylation of methanol, oxidative dehydrogenation of methanol, and dehydrogenation of methanol [1] .</t>
+  </si>
+  <si>
+    <t>the esterification of methanol with formic acid to methyl formate was conventionally catalyzed by corrosive mineral acids.</t>
+  </si>
+  <si>
+    <t>methanol is firstly dehydrogenated to intermediate formaldehyde, which could easily react with methanol to form methyl formate [6] , [8] and [9] .</t>
+  </si>
+  <si>
+    <t>methanol can be detected in exhaled air within the first minute of methyl acetate inhalation, indicating rapid hydrolysis in the respiratory tract.</t>
+  </si>
+  <si>
+    <t>methyl acetate is hydrolyzed by esterase activity to methanol and acetic acid.</t>
+  </si>
+  <si>
+    <t>the present invention provides a high conversion of methyl acetate and water to acetic acid and methanol combined with high throughput rates and productivity.</t>
+  </si>
+  <si>
+    <t>industrially, methyl acetate is manufactured by esterification of acetic acid with methanol.</t>
+  </si>
+  <si>
+    <t>methyl acetate is industrially manufactured by the following four processes: esterification of acetic acid with methanol.</t>
+  </si>
+  <si>
+    <t>in this process methyl acetate is obtained as a by-product during the production of acetic acid via carbonylation of methanol in the presence of rhodium catalyst and methyl iodide promoter.</t>
+  </si>
+  <si>
+    <t>acetic acid, which is obtained by carbonylation of methanol, further reacts with methanol to produce methyl acetate as follows: by-product during purified terephthalic acid (pta) production.</t>
+  </si>
+  <si>
+    <t>methyl acetate can be readily removed from mixtures containing it and methanol by using extractive distillation in which the extractive distillation...</t>
+  </si>
+  <si>
+    <t>one of the commercially important ways to manufacture methyl acetate is by the catalytic esterification of methanol with acetic acid.</t>
+  </si>
+  <si>
+    <t>at high temperatures, it can be converted to sodium sulfide by carbothermal reduction : [6] na 2 so 4 + 2 c ??? na 2 s + 2 co 2 acid-base [ edit ] sodium sulfate is a neutral salt: its aqueous solutions exhibit a ph of 7.</t>
+  </si>
+  <si>
+    <t>in this way the reduction of the sodium sulfate is increased so that in the collected molten material there is a larger proportion of sodium sulfide.</t>
+  </si>
+  <si>
+    <t>thus, the sodium sulfate is reduced to sodium sulfide which then by way of zinc oxide is converted into sodium hydroxide while zinc sulfide can be roasted to convert sulfur to sulfuric acid.</t>
+  </si>
+  <si>
+    <t>at the lowest part 30 of the trough 24 the nozzles 25 are situated while the lateral shallower part 29 of the trough is in the form of a gutter from which the sodium sulfide resulting from reduction of the sodium sulfate is removed.</t>
+  </si>
+  <si>
+    <t>sodium sulfate can be used as chemical analysis reagent such as dye testing; printing industry apply it as mordant agent for making sodium sulfide, glass, water glass, enamel, quantitative measurement of nitrogen and papermaking pulp.</t>
+  </si>
+  <si>
+    <t>4-aminosalicylic acid</t>
+  </si>
+  <si>
+    <t>3-aminophenol</t>
+  </si>
+  <si>
+    <t>4-chloroaniline</t>
+  </si>
+  <si>
+    <t>abstract 4-chloronitrobenzene (4-cl-nb) was rapidly reduced to 4-chloroaniline with half-lives of minutes in a dissimilatory fe(iii)-reducing enrichment culture.</t>
+  </si>
+  <si>
+    <t>abiotic reduction of 4-chloronitrobenzene to 4-chloroaniline in a dissimilatory iron-reducing enrichment culture (pdf download available) for full functionality of researchgate it is necessary to enable javascript.</t>
+  </si>
+  <si>
+    <t>4-chloronitrobenzene (4clnb) and 4-chloroaniline (4clan) were obtained from arcos organics in the highest available purity and used as received.</t>
+  </si>
+  <si>
+    <t>4-chloronitrobenzene was metabolized to 4-chloroacetanilide, 4-chloroaniline, and s-(4-nitrophenyl)glutathione in approximately equal amounts (10-15% of the added substrate in 90 min).</t>
+  </si>
+  <si>
+    <t>citronellol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nerol </t>
+  </si>
+  <si>
+    <t>hydroxylamine</t>
+  </si>
+  <si>
+    <t>hydroxylamine, a nitric oxide donor, inhibits insulin release and activates k+atp channels.</t>
+  </si>
+  <si>
+    <t>some of the effects of hydroxylamine (e.g., lowering blood pressure) may be mediated by its conversion in the body to nitric oxide.</t>
+  </si>
+  <si>
+    <t>hydroxylamine may be prepared by several methods; of current technical importance are the hydrolysis of nitroalkanes (rch 2 no 2 ) and the catalytic hydrogenation of nitric oxide (no).</t>
+  </si>
+  <si>
+    <t>the production of hydroxylamine by the electroreduction of nitric oxide in sulfuric acid is described by l. j. j. janssen et al in electrochimica acta, 1977, vol.</t>
+  </si>
+  <si>
+    <t>reduction of nitric oxide by hydroxylamine.</t>
+  </si>
+  <si>
+    <t>c.) produced the largest concentration of hydroxylamine after a 60 minute reaction time between hydrogen sulfide and nitric oxide.</t>
+  </si>
+  <si>
+    <t>we have surprisingly found that superior yields of hydroxylamine are produced when hydrogen sulfide is reacted with nitric oxide, or mixtures of nitrogen oxides, in aqueous acidic media, in the presence of a solid sulfur-resistant catalyst and substantially in the absence of elemental oxygen.</t>
+  </si>
+  <si>
+    <t>in a process for producing hydroxylamine including reacting excess hydrogen sulfide with nitric oxide, or mixtures of nitrogen oxides, in aqueous acidic media of ph below 7 at ambient temperature and pressure, the improvement which comprises conducting the reaction in the presence of a solid sulfur-resistant catalyst and substantially in the absence of elemental oxygen.</t>
+  </si>
+  <si>
+    <t>summary of the invention in accordance with this invention, there is provided an improved process for producing hydroxylamine including reacting excess hydrogen sulfide with nitric oxide, or mixtures of nitrogen oxides, in aqueous acidic media of ph below 7, at ambient temperature and pressure, the improvement which comprises conducting the reaction in the presence of a solid sulfur-resistant catalyst and substantially in the absence of elemental oxygen.</t>
+  </si>
+  <si>
+    <t>the process is further described in the article, "manufacture of hydroxylamine by catalytic reduction of nitric oxide", appearing in nitrogen, no.</t>
+  </si>
+  <si>
+    <t>o-aminophenol</t>
+  </si>
+  <si>
+    <t>2-nitrophenol</t>
+  </si>
+  <si>
+    <t>m-xylene</t>
+  </si>
+  <si>
+    <t>numerous manufacturing processes are described in the international bibliography and patent literature of the last 100 years for the production of gluconic acid from glucose, including chemical and electrochemical catalysis, enzymatic biocatalysis by free or immobilized enzymes in specialized enzyme bioreactors as well as discontinuous and continuous fermentation processes using free growing or immobilized cells of various microorganisms, including bacteria, yeast-like fungi and fungi.</t>
+  </si>
+  <si>
+    <t>the problem is usually either the separation and removal of glucose from mixtures thereof with other substances, especially with other sugars, such as fructose, or the preparation of gluconic acid.</t>
+  </si>
+  <si>
+    <t>the procedure was as described for the previous experiments but, instead of using carrier-bound god and dissolved catalase, there were added 250 mg. of the above-described god-catalase preparation a. after 100 minutes, the conversion of glucose to gluconic acid was about 50% and after 200 minutes was 70%.</t>
+  </si>
+  <si>
+    <t>the above-described process was repeated with the use of the above-described god-catalase preparation b. after 100 minutes, about 40% and after 200 minutes 94% of the glucose had been converted into gluconic acid.</t>
+  </si>
+  <si>
+    <t>process for the conversion of glucose into gluconic acid by enzymatic oxidation in the presence of oxygen in aqueous solution, which process comprises passing a glucose-containing aqueous solution over a catalyst comprising an insoluble gel carrier to which is bound a mixture of glucose oxidase and catalase in close side by side proximity.</t>
+  </si>
+  <si>
+    <t>the conversion of glucose into gluconic acid is of great interest for many technical purposes.</t>
+  </si>
+  <si>
+    <t>description the present invention is concerned with a process for the conversion of glucose into gluconic acid by the oxidation of glucose in the presence of a catalyst.</t>
+  </si>
+  <si>
+    <t>thus, according to the present invention, there is provided a process for the conversion of glucose into gluconic acid by oxidation with oxygen in aqueous solution, which process comprises passing a glucose-containing aqueous solution over a catalyst which contains glucose oxidase and catalase bound to a carrier and in immediate proximity to one another.</t>
+  </si>
+  <si>
+    <t>in comparison with known chemical processes for the conversion of glucose into gluconic acid and for the separation of glucose from aqueous solutions containing it, the process according to the present invention has the advantage of absolute specificity and extreme simplicity.</t>
+  </si>
+  <si>
+    <t>gluconic acid is prepared by fermentation of glucose, whereby the physiological d-form is produced.</t>
+  </si>
+  <si>
+    <t>the tranformation of glucose to gluconic acid can be achieved with the aid of enzymes (glucose oxidase) or by fermentation with certain moulds.</t>
+  </si>
+  <si>
+    <t>oxidation of glucose to gluconic acid by glucose oxidase in a membrane bioreactor.</t>
+  </si>
+  <si>
+    <t>compared to the state of the art, the present invention offers the advantage of very rapid and highly selective formation of pure gluconic acid from glucose.</t>
+  </si>
+  <si>
+    <t>summary of the invention accordingly, it is an object of the present invention to provide a process for preparing gluconic acid and alkali metal salts thereof by oxidizing glucose with oxygen or with an oxygen containing gas, such as air, in an aqueous, alkaline solution, in the presence of a supported catalyst containing bismuth and a metal selected from the platinum group of noble metal.</t>
+  </si>
+  <si>
+    <t>now it has been found that glucose can be made to react with oxygen in an alkaline medium to form gluconic acid in a selective manner and at a much higher rate of reaction than that of the european patent disclosure 0 142 725, provided that the reaction is carried out on a selected supported catalyst.</t>
+  </si>
+  <si>
+    <t>this method leads to a glucose conversion of 99.8% and a yield of gluconic acid in the form of its sodium salt of 99.5%.</t>
+  </si>
+  <si>
+    <t>lastly, the european patent disclosure 0 151 498 discloses the preparation of alpha-ketogluconic acid from glucose with a platinum-bismuth catalyst on activated charcoal, however, the weight ratio of catalyst to glucose is 1.17:1.</t>
+  </si>
+  <si>
+    <t>large-scale fermentation is one known method for making gluconic acid; another method is catalytic and is based on glucose which is subjected to oxidation with an oxygen containing gas in an aqueous alkaline solution in the presence of a heterogeneous catalyst.</t>
+  </si>
+  <si>
+    <t>the optimal rate of conversion has been reached when the glucose has been converted, for instance, to the extent of 99% into gluconic acid.</t>
+  </si>
+  <si>
+    <t>introduction and background the present invention relates to a process for making gluconic acid or its alkali metal salts by oxidizing glucose with oxygen or with an oxygen containing gas in an aqueous alkaline solution in the presence of a supported catalyst containing a platinum group metal and bismuth.</t>
+  </si>
+  <si>
+    <t>it was furthermore unforeseeable that the described procedure would allow rapid and, in addition, highly selective gluconate preparation wherein further oxidations of the prepared gluconic acid to form undesirable byproducts and also undesired isomerization of the glucose are prevented.</t>
+  </si>
+  <si>
+    <t>aminopyridine</t>
+  </si>
+  <si>
+    <t>an oxidative diamination of nitroalkene with 2-aminopyridine for the synthesis of 2-nitro-3-arylimidazo[1,2-a]pyridines with complete regioselectivity has been achieved under mild and aerobic reaction conditions using an iron catalyst.</t>
+  </si>
+  <si>
+    <t>a cui-catalyzed aerobic oxidative synthesis of imidazo[1,2- a ]pyridines from 2-aminopyridines and acetophenones is compatible with a broad range of functional groups.</t>
+  </si>
+  <si>
+    <t>sulfur monochloride</t>
+  </si>
+  <si>
+    <t>octasulfur</t>
+  </si>
+  <si>
+    <t>tetrachlorophthalic anhydride</t>
+  </si>
+  <si>
+    <t>a high conversion is maintained until the last 10 percent of the chlorination when dilution of the reaction mass with tetrachlorophthalic anhydride causes the conversion to fall.</t>
+  </si>
+  <si>
+    <t>we have described the use oi' our process to make tetrachlorophthalic anhydride but it will be apparent that it is also suitable for making the lower chlorinated derivatives, such as mono, di-, and trichlorophthalic anhydride or various mixtures containing the lower chlorinated derivatives, with or without tetrachlorophthallc anhydride.</t>
+  </si>
+  <si>
+    <t>after purication, the product had a melting point of 255.0 c. and an acidity number equivalent to 100.0 percent tetrachlorophthalic anhydride.</t>
+  </si>
+  <si>
+    <t>if the process is conducted in such a manner as to produce appreciable quantities of tetrachlorophthalic anhydride, this can readily be separated from the other products of the reaction since it has a higher boiling point and can be recovered as a still bottom and then further purified by methods well-known to those skilled in the art.</t>
+  </si>
+  <si>
+    <t>2,4-dichlorotoluene</t>
+  </si>
+  <si>
+    <t>4-chlorotoluene</t>
+  </si>
+  <si>
+    <t>trichloroacetaldehyde</t>
+  </si>
+  <si>
+    <t>p-dichlorobenzene</t>
+  </si>
+  <si>
+    <t>the method of making tetrachlorophthalic anhydride which comprises contacting elemental chlorine with liquid phthalic anhydride in the presence of a chloride of molybdenum as a catalyst at chlorinating temperatures within the range of 150 c. to 275 c.</t>
+  </si>
+  <si>
+    <t>tetrachloromethane</t>
+  </si>
+  <si>
+    <t>p-chlorophenol</t>
+  </si>
+  <si>
+    <t>1,2,3-trichloropropane</t>
+  </si>
+  <si>
+    <t>benzyl alcohol</t>
+  </si>
+  <si>
+    <t>diethyl chlorophosphate</t>
+  </si>
+  <si>
+    <t>1-chloro-2-propanol</t>
+  </si>
+  <si>
+    <t>phosphorus pentoxide</t>
+  </si>
+  <si>
+    <t>d-calcium pantothenate</t>
+  </si>
+  <si>
+    <t>methylene diphenyl diisocyanate</t>
+  </si>
+  <si>
+    <t>methylendiphenylisocyanate</t>
+  </si>
+  <si>
+    <t>potassium perchlorate</t>
+  </si>
+  <si>
+    <t>iron (iii) oxide</t>
+  </si>
+  <si>
+    <t>hydrochloric acid</t>
+  </si>
+  <si>
+    <t>zinc chromate</t>
+  </si>
+  <si>
+    <t>potassium sorbate</t>
+  </si>
+  <si>
+    <t>potassium pentaborate octahydrate</t>
+  </si>
+  <si>
+    <t>potassium tetraborate tetrahydrate</t>
+  </si>
+  <si>
+    <t>oxygen</t>
+  </si>
+  <si>
+    <t>potassium pyrophosphate</t>
+  </si>
+  <si>
+    <t>magnesium sulfate</t>
+  </si>
+  <si>
+    <t>chloroprene</t>
+  </si>
+  <si>
+    <t>methyl ethyl ketone</t>
+  </si>
+  <si>
+    <t>diethyl phosphite</t>
+  </si>
+  <si>
+    <t>propylene chlorohydrin</t>
+  </si>
+  <si>
+    <t>red phosphorus</t>
+  </si>
+  <si>
+    <t>(r)-pantolactone</t>
+  </si>
+  <si>
+    <t>iron (ii) sulfate heptahydrate</t>
+  </si>
+  <si>
+    <t>liquid air</t>
+  </si>
+  <si>
+    <t>3,4-dichloro-1-butene</t>
+  </si>
+  <si>
+    <t>the yield of benzyl chloride is about 100 g. an alternative method of determining the completion of the reaction is to weigh the flask and toluene, and to stop the passage of chlorine when the increase in weight is 37 g. the benzyl chloride may also be isolated by distillation under atmospheric pressure.</t>
+  </si>
+  <si>
+    <t>(3) preparation of diethyl chlorophosphate of phosphorus trichloride mixed with toluene, ethanol was added with stirring, the temperature controlled at 30 ~ 40 ??????, plus continue stirring 0.5h, the reaction of diethyl phosphite ester.</t>
+  </si>
+  <si>
+    <t>this removal of the propylene oxide prevents the formation of propylene chlorohydrin and thus aleviates the need for...</t>
+  </si>
+  <si>
+    <t>the reaction of methane (ch4) and chlorine (cl2) to form chloromethane (ch3cl) and hydrochloric acid (hcl).</t>
+  </si>
+  <si>
+    <t>[9] several routes exist for synthesizing vanillin from guaiacol.</t>
+  </si>
+  <si>
+    <t>production and occurrence [ edit ] the main sources of calcium sulfate are naturally occurring gypsum and anhydrite , which occur at many locations worldwide as evaporites .</t>
+  </si>
+  <si>
+    <t>magnesium sulfate injection is also indicated for the prevention and control of seizures in a pre-eclampsia and eclampsia, respectively.</t>
+  </si>
+  <si>
+    <t>description: the present invention relates to a process for preparing chloroprene by dehydrochlorinating 3,4-dichloro-1-butene.</t>
+  </si>
+  <si>
+    <t>infobox??references 2,4-dichlorophenol ( 2,4-dcp ) is a chlorinated derivative of phenol with the molecular formula c 6 h 4 cl 2 o.</t>
+  </si>
+  <si>
+    <t>for example, propene reacts with aqueous chlorine to form 1-chloro-2-propanol as the major product.</t>
+  </si>
+  <si>
+    <t>this removal of the propylene oxide prevents the formation of propylene chlorohydrin and thus aleviates the need for its removal.</t>
+  </si>
+  <si>
+    <t>amongst other processes that produce hydrogen chloride/hydrochloric acid is the chlorination of hydrocarbons, for example the chlorination of methane to form chloromethane, ethane to chloroethane and benzene to chlorobenzene.</t>
+  </si>
+  <si>
+    <t>among these potassium tetraborate tetrahydrate (ptt) (k 2 b 4 o 7 ???? 4h 2 o) is produced resulting from the controlled reac- tion of potassium hydroxide and boric acid in aqueous media.</t>
+  </si>
+  <si>
+    <t>acid cyanate cyanuric acid fulminic acid isocyanate isocyanic isocyanic acid poison sulphocyanic trigenic references in periodicals archive ?</t>
+  </si>
+  <si>
+    <t>guaiacol vanillin, adulterated with acetovanillone, has an odor indistinguishable from lignin vanillin.</t>
+  </si>
+  <si>
+    <t>magnesium sulfate should be used during pregnancy only if clearly needed.</t>
+  </si>
+  <si>
+    <t>2. process according to claim 1, characterized in that it comprises a sequence of the following steps: (a) dehydrochlorination of 3,4-dichloro-1-butene in the presence of the primary amine r-nh 2 , to yield chloroprene and r-nh 2 .hcl; (b) treatment of r-nh 2 .hcl with lime in order to liberate and subsequently recover r-nh 2 .</t>
+  </si>
+  <si>
+    <t>alternatively, encoding nucleic acids can be introduced to produce an intermediate microbial organism having the biosynthetic capability to catalyze some of the required reactions to confer methyl ethyl ketone and/or 2-butanol biosynthetic capability.</t>
+  </si>
+  <si>
+    <t>the escaping chloromethane gas is washed??with water in order to separate from hydrochloric acid and methyl alcohol.</t>
+  </si>
+  <si>
+    <t>specializes in the potassium sorbate, sorbic acid sodium benzoate, bht, crotonaldehyde, and para cresol.</t>
+  </si>
+  <si>
+    <t>while some vanillin is still made from lignin wastes, most synthetic vanillin is today synthesized in a two-step process from the petrochemical precursors guaiacol and glyoxylic acid .</t>
+  </si>
+  <si>
+    <t>hydration and dehydration reactions [ edit ] with judicious heating, gypsum converts to the partially dehydrated mineral called calcium sulfate hemihydrate, calcined gypsum, and plaster of paris .this material has the formula caso 4 ??( n h 2 o), where 0.5 ??? n ??? 0.8.</t>
+  </si>
+  <si>
+    <t>continuous maternal administration of magnesium sulfate injection in pregnancy beyond 5 to 7 days can cause fetal abnormalities.</t>
+  </si>
+  <si>
+    <t>tetrachloromethane | define tetrachloromethane at dictionary.com dictionary.com word of the day translate games blog thesaurus.com favorites dictionary.com thesaurus.com my account log out log in try our apps definitions synonyms follow @dictionarycom follow dictionary.com november's name...</t>
+  </si>
+  <si>
+    <t>propylene oxide is produced via the established chlorohydrin process, in which propylene and chlorine react in the presence of water to form the intermediate propylene chlorohydrin.</t>
+  </si>
+  <si>
+    <t>calcium cyanamide cyanate cyanuric acid friedrich w??hler fulminic acid isocyanic acid thiocyanate w??hler, friedrich encyclopedia browser ?</t>
+  </si>
+  <si>
+    <t>however, even in the presence of an inhibitor, small amounts of 1,3-butadiene dimer (4-vinylcyclohexene) form during long term storage.</t>
+  </si>
+  <si>
+    <t>[11] however, unlike vanillin synthesized from lignin or guaiacol, it can be labeled as a natural flavoring.</t>
+  </si>
+  <si>
+    <t>process for dehydrochlorinating 3,4-dichloro-1-butene to yield chloroprene - enichem, elastomeres france sa.</t>
+  </si>
+  <si>
+    <t>benzyl chloride forms an azeotrope with toluene, so some of the product is in the distillate if you didn't use a lower boiling azeotrope such as the one formed with isopropanol to remove the toluene from the chlorination products.</t>
+  </si>
+  <si>
+    <t>the codex has not established a mrl for propylene oxide or propylene chlorohydrin.</t>
+  </si>
+  <si>
+    <t>in the same reactor we prepared isocyanic acid from cyanuric acid in quantitative yield.</t>
+  </si>
+  <si>
+    <t>vanillin crystals extracted from vanilla extract lignin-based artificial vanilla flavoring is alleged to have a richer flavor profile than oil-based flavoring; the difference is due to the presence of acetovanillone , a minor component in the lignin-derived product that is not found in vanillin synthesized from guaiacol.</t>
+  </si>
+  <si>
+    <t>also, in accordance with current agency practice, epa is proposing minor revisions to tolerance expressions and specific tolerance nomenclatures for propylene oxide and propylene chlorohydrin.</t>
+  </si>
+  <si>
+    <t>sulfur oxides - sulfur dioxide and sulfur trioxide - windows to the universe beginner intermediate advanced become a member member benefits, no ads brought to you by the national earth science teachers association sun interior atmosphere activity sunspots poles eclipses magnetic field radiation fate culture more...</t>
+  </si>
+  <si>
+    <t>we produce crotonaldehyde, bht, potassium sorbate, sorbic acid and para cresol.</t>
+  </si>
+  <si>
+    <t>in connection with these experiments we studied the kinetics of the degradation of cyanuric acid and trimerization of isocyanic acid to obtain a quantitative description of the process.</t>
+  </si>
+  <si>
+    <t>in 1876, karl reimer synthesized vanillin ( 2 ) from guaiacol ( 1 ).</t>
+  </si>
+  <si>
+    <t>it is well known that the main process for preparing chloroprene, i.e., 2-chloro-1,3-butadiene, consists in dehydrochlorinating 3,4-dichloro-1-butene (dcb) by means of sodium hydroxide.</t>
+  </si>
+  <si>
+    <t>how is benzyl alcohol prepared from toluene oxidation ?</t>
+  </si>
+  <si>
+    <t>keywords cyanuric acid; fluidized bed reactor; isocyanic acid; pyrolysis.</t>
+  </si>
+  <si>
+    <t>summary of data reported and evaluation 5.1 exposure data 4-vinylcyclohexene is produced by catalytic dimerization of 1,3-butadiene.</t>
+  </si>
+  <si>
+    <t>today, artificial vanillin is made either from guaiacol or lignin .</t>
+  </si>
+  <si>
+    <t>although, the oxidation of toluene goes partly through benzyl alcohol for the above mentioned reason it is better to use benzoic acid, benzaldehyde, benzyl chloride, bromobenzene etc.</t>
+  </si>
+  <si>
+    <t>also, in accordance with current agency practice to describe more clearly the measurement and scope or coverage of tolerances, including applicable metabolites and degradates, epa is proposing minor revisions to tolerance expressions for propylene oxide and propylene chlorohydrins.</t>
+  </si>
+  <si>
+    <t>preparation edit potassium perchlorate can be prepared by reacting a potassium salt, usually potassium chloride with sodium perchlorate .</t>
+  </si>
+  <si>
+    <t>[9] counterintuitively, though it uses waste materials, the lignin process is no longer popular because of environmental concerns, and today most vanillin is produced from the petrochemical raw material guaiacol .</t>
+  </si>
+  <si>
+    <t>the nucleic acids can be introduced so as to confer, for example, a methyl ethyl ketone and/or 2-butanol biosynthetic pathway onto the microbial organism.</t>
+  </si>
+  <si>
+    <t>can benzyl alcohol be produced directly from toluene oxidation or it has to go through hydrogenation from benzaldehyde?</t>
+  </si>
+  <si>
+    <t>with the proper ion exchange, exploitation of potassium perchlorate?€?s low solubility occurs at a level that is many times lower than that of sodium perchlorate.</t>
+  </si>
+  <si>
+    <t>introduction syntheses of vanillin from guaiacol have depended largely upon a direct addition of a carbon atom to the 4-position in guaiacol.</t>
+  </si>
+  <si>
+    <t>for this reason, instead of toluene i'd stay with the above suggested starting materials for the synthesis of benzyl alcohol.</t>
+  </si>
+  <si>
+    <t>however, because the current tree nut group tolerance does not cover all registered uses on nuts, epa is also proposing to establish individual tolerances on these use sites (pistachios, pine nuts) in 40 cfr 180.491(a)(1) for residues of propylene oxide in or on pistachio at 300 ppm and nut, pine at 300 ppm, and in 40 cfr 180.491(a)(2) for residues of propylene chlorohydrin in or on pistachio at 10.0 ppm and nut, pine at 10.0 ppm.</t>
+  </si>
+  <si>
+    <t>creating potassium perchlorate potassium perchlorate can be created through an industrial process where a solution of sodium perchlorate and potassium chloride is processed.</t>
+  </si>
+  <si>
+    <t>descrizione [0001] the invention relates to manufacture of cyanuric acid by trimerizing isocyanic acid.</t>
+  </si>
+  <si>
+    <t>synthesis of vanillin from guaiacol , hive methods discourse rhodium ( chief bee ) 06-26-03 02:40 no 442556 synthesis of vanillin from guaiacol (rated as: excellent) bookmark a new vanillin synthesis j. am.</t>
+  </si>
+  <si>
+    <t>compliance with the tolerance levels specified in this paragraph is to be determined by measuring only the sum of propylene chlorohydrin (1- chloro-2-propanol), and its isomer 2-chloro-1-propanol, calculated as the stoichiometric equivalent of propylene chlorohydrin (1-chloro-2- propanol), that results from the use of propylene oxide as a postharvest fumigant, in or on the commodity.</t>
+  </si>
+  <si>
+    <t>by far the most common are ammonium perchlorate nh4clo4 sodium perchlorate naclo4 potassium perchlorate kclo4 perchloric acid hclo4 experimentally, potassium perchlorate has been tested as an animal fattening agent.</t>
+  </si>
+  <si>
+    <t>we proudly produce rhovanil?? vanillin in north america (baton rouge, louisiana), europe (lyon, france), and china??(zhenjiang, jiangsu province) via a clean and sustainable route (in-house ex-catechol guaiacol).</t>
+  </si>
+  <si>
+    <t>description the present invention relates to a process for preparing chloroprene by dehydrochlorinating 3,4-dichloro-1-butene.</t>
+  </si>
+  <si>
+    <t>(1965) identified propylene chlorohydrin as the residue formed in foods fumigated with propylene oxide.</t>
+  </si>
+  <si>
+    <t>this analysis method is well suited for the simultaneous and convenient analysis of guaiacol and vanillin in a vanilla extract to evaluate the quality of the vanilla extract.</t>
+  </si>
+  <si>
+    <t>it is produced mainly by the dehydrochlorination of propylene chlorohydrin or by oxidation of propylene to propylene oxide by an organic hydroperoxide.</t>
+  </si>
+  <si>
+    <t>types of perchlorate salts ammonium perchlorate; potassium perchlorate; magnesium perchlorate; and sodium perchlorate.</t>
+  </si>
+  <si>
+    <t>example i this example illustrates the use of an aromatic cu(i) sulfonate as a catalyst in the cyclodimerization of 1,3-butadiene to 4-vinylcyclohexene (4-vch).</t>
+  </si>
+  <si>
+    <t>chloroprene (2-chloro-1,3-butadiene) has been prepared by dehydrochlorinating 3,4-dichloro-1-butene with aqueous alkaline solution such as aqueous sodium hydroxide or potassium hydroxide.</t>
+  </si>
+  <si>
+    <t>the separation of benzyl alcohol is chosen as the toluene oxidation product to be separated from toluene, whereas toluene and o -xylene from heptane is used as a model system for the separation of aromatic compounds from a cracker feed and o -xylene is chosen, because its high complexation constant (300??m ???1 ) indicates maximum feasibility [10] .</t>
+  </si>
+  <si>
+    <t>chemical engineering science volume 34, issue 9 , 1979, pages 1133-1140 synthesis of propylene oxide from propylene chlorohydrins?€?ii : modeling of the distillation with chemical reaction unit author links open the overlay panel.</t>
+  </si>
+  <si>
+    <t>in accordance with this invention, a feed comprising 1,3-butadiene is contacted with a catalyst comprising at least one copper(i) sulfonate in a reaction zone at effective cyclodimerization conditions to produce 4-vinylcyclohexene (4-vch).</t>
+  </si>
+  <si>
+    <t>producing liquid air directly would be cheaper than producing liquid oxygen and nitrogen separately since the process consumes about a fifth less energy.</t>
+  </si>
+  <si>
+    <t>introduction in this study, aqueous cyclodextrin (cd) solutions are explored for the recovery of specific organic compounds for two different industrial applications: aromatic compounds from the feed of a naphtha cracker and benzyl alcohol from the reaction mixture in the toluene oxidation process.</t>
+  </si>
+  <si>
+    <t>summary of the invention it is an object of this invention to provide a process for catalytically cyclodimerizing 1,3-butadiene to 4-vinylcyclohexene (4-vch) at a high selectivity.</t>
+  </si>
+  <si>
+    <t>congenital rickets associated with magnesium sulfate infusion for tocolysis.</t>
+  </si>
+  <si>
+    <t>13. a process in accordance with claim 1, wherein the effluent exiting said reaction zone is subjected to fractional distillation so as to separate unconverted 1,3-butadiene from produced 4-vinylcyclohexene.</t>
+  </si>
+  <si>
+    <t>the 2-butanol pathway includes a 2-methylacetoacetyl- coa thiolase, a 2-methylacetoacetate decarboxylase, a methyl ethyl ketone reductase and an enzyme selected from a 2-methylacetoacetyl-coa hydrolase and a 2-methylacetoacetyl-coa transferase.</t>
+  </si>
+  <si>
+    <t>calcium sulfate or gypsum when added to our clay soils only increases the already high calcium content.</t>
+  </si>
+  <si>
+    <t>although its chief uses are in the preparation of sulfuric acid, sulfur trioxide, and sulfites, sulfur dioxide also is used as a disinfectant, a refrigerant, a bleach, and a food preservative, especially in dried fruits.</t>
+  </si>
+  <si>
+    <t>a process for converting 1,3-butadiene to 4-vinylcyclohexene which comprises contacting a feed comprising 1,3-butadiene with a catalyst comprising at least one copper(i) sulfonate in a reaction zone at effective cyclodimerization conditions to produce 4-vinylcyclohexene.</t>
+  </si>
+  <si>
+    <t>effect of magnesium sulfate treatment on neonatal bone abnormalities.</t>
+  </si>
+  <si>
+    <t>benzyl chloride is then fractionally distilled from unchanged??toluene.</t>
+  </si>
+  <si>
+    <t>in a particularly preferred embodiment, a solution comprising at least one sulfonic acid and a feed stream comprising 1,3-butadiene are concurrently passed through a bed of a solid copper(i) oxide-containing material so as to form at least one dissolved copper(i) sulfonate which acts as the catalyst for the production of 4-vinylcyclohexene (from 1,3-butadiene).</t>
+  </si>
+  <si>
+    <t>one such procedure includes, for example, the fermentation of a microbial organism that produces a methyl ethyl ketone and/or 2-butanol pathway intermediate.</t>
+  </si>
+  <si>
+    <t>preparation of benzyl chloride by chlorination of toluene with chlorine without using phosphorus pentachloride device for the chlorination of toluene is shown below; it is placed in the window so that the sun?€? s rays fall directly onto the ball unit.</t>
+  </si>
+  <si>
+    <t>sulfur dioxide and oxygen gas to produce sulfur trioxide?</t>
+  </si>
+  <si>
+    <t>a glass apparatus for the preparation of benzyl chloride the flask was charged with 200 g (about 2 moles) of toluene and heated in an oil bath to reflux.</t>
+  </si>
+  <si>
+    <t>8. a process in accordance with claim 5, wherein said solution comprising said at least one sulfonic acid and said feed comprising 1,3-butadiene are concurrently passed through a bed of said solid copper(i) oxide-containing material so as to form said at least one dissolved copper(i) sulfonate in-situ which acts as the cyclodimerization catalyst for the production of 4-vinylcyclohexene from 1,3-butadiene.</t>
+  </si>
+  <si>
+    <t>the present invention relates to the oxidation of toluene to benzyl alcohol and benzaldehyde.</t>
+  </si>
+  <si>
+    <t>when benzyl chloride is formed the boiling point of the liquid in the flask increases, the oil bath temperature should be raised gradually to reflux of the toluene.</t>
+  </si>
+  <si>
+    <t>it has now been found, unexpectedly, that in the catalyzed thermal decomposition of cyanuric acid is not a mixture of products, but virtually exclusively isocyanic acid is formed when an aluminum catalyst is used as catalyst.</t>
+  </si>
+  <si>
+    <t>the methyl ethyl ketone and/or 2-butanol producing microbial organisms of the invention can initiate synthesis from an intermediate, for example, beta-keto valerate, 2-methylacetoacetate, or, in the case of 2-butanol synthesis, from mek itself.</t>
+  </si>
+  <si>
+    <t>a mixture of toluene, benzyl hydroperoxide, benzyl alcohol, benzaldehyde, benzoic acid and a few other by-products is thus obtained.</t>
+  </si>
+  <si>
+    <t>production of chloroprene chloroprene is produced in three steps from 1,3-butadiene : (i) chlorination , (ii) isomerization of part of the product stream, and (iii) dehydrochlorination of 3,4-dichloro-1-butene.</t>
+  </si>
+  <si>
+    <t>it has now been found that toluene may be oxidized in the liquid phase under certain specific conditions in 3,387,036 patented june 4, 1968 good yields to a mixture of benzyl alcohol and benzaldehyde.</t>
+  </si>
+  <si>
+    <t>the reaction of oxygen with sulfur dioxide to make sulfur trioxide .</t>
+  </si>
+  <si>
+    <t>sulfur dioxide can be made to react with more oxygen to make sulfur trioxide .</t>
+  </si>
+  <si>
+    <t>common sources for the synthetic production of vanillin include lignins, ferulic acid, and glucose, but the most popular method of synthesis is from guaiacol.</t>
+  </si>
+  <si>
+    <t>8. process for the production of benzyl alcohol and benzaldehyde which comprises oxidizing liquid toluene at c.220 c. with a mixture of gaseous oxygen and an inert gaseous diluent such that the said mixture contains not more than 21% of oxygen, until at most 10% of the toluene has been oxidized, decomposing the hydroperoxides formed to benzyl alcohol and benzaldehyde by heating in an inert atmosphere, and separating the benzyl alcohol and benzaldehyde produced.</t>
+  </si>
+  <si>
+    <t>gcse chemistry - the reaction of sulfur dioxide with oxygen to make sulfur trioxide for the contact process to make sulfuric acid - gcse science.</t>
+  </si>
+  <si>
+    <t>while some vanillin is still made from lignin wastes today, most synthetic vanillin is now synthesized in a two-step process from guaiacol and glyoxylic acid.</t>
+  </si>
+  <si>
+    <t>as described herein, one exemplary growth condition for achieving biosynthesis of methyl ethyl ketone and/or 2-butanol includes anaerobic culture or fermentation conditions.</t>
+  </si>
+  <si>
+    <t>the most widely used industrial process for the preparation of benzyl alcohol and benzaldehyde consists in chlorinating toluene to a mixture of benzyl chloride and benzylidene chloride, which are then saponified.</t>
+  </si>
+  <si>
+    <t>sulfur dioxide + oxygen sulfur trioxide .</t>
+  </si>
+  <si>
+    <t>in 1876, karl reimer synthesized vanillin from guaiacol.</t>
+  </si>
+  <si>
+    <t>in yet further embodiments, the present invention provides methods for producing methyl ethyl ketone or 2-butanol via culturing a non-naturally occurring microbial organism having the alternate propionyl-coa pathway via threonine as described herein above.</t>
+  </si>
+  <si>
+    <t>the primary route of toluene metabolism is by hydroxylation to benzyl alcohol by members of the cytochrome p450 (cyp) superfamily.</t>
+  </si>
+  <si>
+    <t>about 99% of the sulfur dioxide is converted into sulfur trioxide under these conditions .</t>
+  </si>
+  <si>
+    <t>in the manner described isocyanic acid from cyanuric acid is recovered in good yields.</t>
+  </si>
+  <si>
+    <t>it is understood that the microbial organisms of the invention are cultured under conditions sufficient to produce methyl ethyl ketone and/or 2-butanol.</t>
+  </si>
+  <si>
+    <t>[2] the first four seem to be involved in the hydroxylation of toluene to benzyl alcohol.</t>
+  </si>
+  <si>
+    <t>a more modern method reacts guaiacol, itself obtained from catechol, with glyoxylic acid, and that is how a lot of vanillin is produced today.</t>
+  </si>
+  <si>
+    <t>the 2-butanol pathway includes a ??-ketothiolase, a ??-ketovalerate decarboxylase, a methyl ethyl ketone reductase and an enzyme selected from a ??-ketovaleryl- coa hydrolase and a ??-ketovaleryl -coa transferase.</t>
+  </si>
+  <si>
+    <t>although the benzyl chloride yield was satisfactory (81%), the fact that some amount of the substrate toluene remains unreacted prompted us to perform several experiments in which more than 3.5??f/mole charge was consumed.</t>
+  </si>
+  <si>
+    <t>sulfur dioxide oxidizes via several chemical pathways to sulfur trioxide.</t>
+  </si>
+  <si>
+    <t>synthesis of vanillin from benzene-derived guaiacol is therefore the basis of large-scale industrial manufacture of vanillin.</t>
+  </si>
+  <si>
+    <t>the non-naturally occurring microbial organisms of the invention can be produced by introducing expressible nucleic acids encoding one or more of the enzymes or proteins participating in one or more methyl ethyl ketone and/or 2-butanol biosynthetic pathways.</t>
+  </si>
+  <si>
+    <t>this vanillin however, can not be labeled as a natural flavoring and synthesis of vanillin from benzene-derived guaiacol is not environmentally benign.</t>
+  </si>
+  <si>
+    <t>sulfur dioxide in the presence of vanadia catalyst oxidizes to form sulfur trioxide.</t>
+  </si>
+  <si>
+    <t>toluene is metabolized and then excreted as benzyl alcohol and benzoic acid.</t>
+  </si>
+  <si>
+    <t>process for trimerizing isocyanic acid to make cyanuric acid.</t>
+  </si>
+  <si>
+    <t>sulfur dioxide can also be converted to gaseous sulfur trioxide and liquid sulfuric acid, which are major contributors to the formation of acid rain ( atsdr, 1998 ; udaq, 2014g ).</t>
+  </si>
+  <si>
+    <t>over the range of conditions studied, the rate of sulfur dioxide oxidation is zero-order in oxygen, first-order in sulfur dioxide and inhibited by sulfur trioxide.</t>
+  </si>
+  <si>
+    <t>here, we report the preparation of benzyl alcohol by electrochemical catalyzed oxidation of toluene detected by the uv spectrum and gas chromatography/ mass spectrometry (gc/ms), the effect of the different medium was also discussed.</t>
+  </si>
+  <si>
+    <t>the objective of this research is to establish the fundamental kinetics and mechanism of the oxidation of sulfur dioxide to sulfur trioxide over oxide catalysts that contain the oxide phase in the solid state.</t>
+  </si>
+  <si>
+    <t>this problem is so serious that industrial specifications for scr processes include upper limits for the outlet concentration of sulfur trioxide corresponding to approximately 1?€?2% sulfur dioxide conversion.</t>
+  </si>
+  <si>
+    <t>description background of the invention this invention relates to a process for cyclodimerizing 1,3-butadiene to 4-vinylcyclohexene in the presence of a copper(i) compound as the catalyst.</t>
+  </si>
+  <si>
+    <t>a catalyst able to suppress the oxidation of sulfur dioxide to sulfur trioxide would allow lower scr operating temperatures without the worry of ammonium sulfate production and deposition.</t>
+  </si>
+  <si>
+    <t>chemical producers and buyers rely on kessler chemical for their p-chlorophenol needs.</t>
+  </si>
+  <si>
+    <t>the oxidation of sulfur dioxide to sulfur trioxide is undesirable during the selective catalytic reduction (scr) of nitrogen oxides (no x ) found in the flue gas of power plants.</t>
+  </si>
+  <si>
+    <t>kessler chemical works closely with leading suppliers to offer the high quality p-chlorophenol that you need for your applications.</t>
+  </si>
+  <si>
+    <t>the products are further heated to 420??c and the sulfur dioxide is oxidized to sulfur trioxide over a v 2 o 5 ?€?k 2 s 2 o 7 /sio 2 sulfuric acid contact catalyst.</t>
+  </si>
+  <si>
+    <t>p-chlorophenol is used in certain processes and applications in the pharmaceutical industry.</t>
+  </si>
+  <si>
+    <t>synthesis of benzyl alcohol from toluene synthesis of benzyl alcohol from toluene synthesis of benzyl alcohol by indirect electrochemical catalyzed.</t>
+  </si>
+  <si>
+    <t>sample resume college internship pre med writing a strong cover letter yahoo how to write thesis statement for literary analysis synthesis of benzyl alcohol from toluene can benzyl alcohol be produced directly from toluene oxidation or it has to go.</t>
+  </si>
+  <si>
+    <t>the data suggests that tungsten oxide substantially decreases the oxidation of sulfur dioxide to sulfur trioxide.</t>
+  </si>
+  <si>
+    <t>the results of the gas chromatography showed 10% conversion of toluene and selectivity to benzaldehyde 76%, benzyl alcohol 4.3%, benzyl acetate 7% and benzoic acid 12%.</t>
+  </si>
+  <si>
+    <t>however, a small amount of the sulfur dioxide is not converted and is passed through the fourth bed of catalyst and the resulting gases, mainly sulfur trioxide, flow to the next stage.</t>
+  </si>
+  <si>
+    <t>the results of the gas chromatography showed 6% conversion of toluene and selectivity to benzaldehyde 73%, benzyl alcohol 2.3%, benzyl acetate 5% and benzoic acid 10%.</t>
+  </si>
+  <si>
+    <t>the results of the gas chromatography showed 18% conversion of toluene and selectivity to benzaldehyde 68%, benzyl alcohol 5.3%, benzyl acetate 10.2% and benzoic acid 17%.</t>
+  </si>
+  <si>
+    <t>the results of the gas chromatography showed 17% conversion of toluene and selectivity to benzaldehyde 51%, benzyl alcohol 2.1%, benzyl acetate 4.2% and benzoic acid 42%.</t>
+  </si>
+  <si>
+    <t>at such conditions, conversions of tetrachloromethane of from 80% to 100% are expected, with the main product being 1,1,1,2,3-pentachloropropane.</t>
+  </si>
+  <si>
+    <t>in some embodiments, the solvent may be tetrachloromethane produced by the process.</t>
+  </si>
+  <si>
+    <t>what is important is that a feedstream comprising partially chlorinated methanes is catalyzed with a free radical catalyst to provide tetrachloromethane.</t>
+  </si>
+  <si>
+    <t>a more specific example might involve a process wherein a feedstream of tetrachloromethane is reacted with ethylene_in the presence of less than 2 mole % of one or more catalysts comprising iron, such as fecl3, and optionally, from 0.1 to 5 mole % a phosphours containing promoter.</t>
+  </si>
+  <si>
+    <t>the organic liquid product of reactor 102 , comprising methyl chloride, methylene chloride, chloroform and tetrachloromethane, is sent to a separation column 110 , which provides an overhead stream comprising methyl chloride, methylene chloride and chloroform that is recycled back to reactor 102 .</t>
+  </si>
+  <si>
+    <t>field the present invention relates to processes for the production of tetrachloromethane.</t>
+  </si>
+  <si>
+    <t>tetrachloromethane is an important raw material desirably utilized in the production of, e.g., 1,1,1,2,3-pentachloropropane and/or 1,1,2,3-tetrachloropropene.</t>
+  </si>
+  <si>
+    <t>since the present invention provides an improved process for the production of tetrachloromethane, it is contemplated that the improvements provided will carry forward to provide improvements to these downstream processes and/or products.</t>
+  </si>
+  <si>
+    <t>a process for the production of tetrachloromethane comprising catalyzing the chlorination of a feedstream comprising methylene chloride and/or methyl chloride, and not comprising chloroform or methane, with a free radical initiator to provide a product stream comprising chloroform and tetrachloromethane at a ratio of from 4:1 to 1:2.</t>
+  </si>
+  <si>
+    <t>the advantages provided by the present processes may be carried forward by utilizing the tetrachloromethane to produce further downstream products, such as, e.g., 1,1,1,2,3-pentachloroproprane and/or 1,1,2,3-tetrachloropropene.</t>
+  </si>
+  <si>
+    <t>the bottom stream of separation column 110 comprising tetrachloromethane and heavier byproducts is provided to separation column 112 .</t>
+  </si>
+  <si>
+    <t>while in other embodiments, the methyl ethyl ketone or 2-butanol pathways can include a 2-methylacetoacetyl- coa thiolase, a 2-methylacetoacetate decarboxylase and an enzyme selected from a 2- methylacetoacetyl-coa hydrolase and a 2-methylacetoacetyl-coa transferase.</t>
+  </si>
+  <si>
+    <t>the present invention provides efficient processes for the production of tetrachloromethane.</t>
+  </si>
+  <si>
+    <t>lignin-based artificial vanilla flavoring is alleged to have a richer flavor profile than oil-based flavoring; the difference is due to the presence of [[/wiki/acetovanillone|acetovanillone]] in the lignin-derived product, an impurity not found in vanillin synthesized from guaiacol.</t>
+  </si>
+  <si>
+    <t>the culture conditions described herein can be scaled up and grown continuously for manufacturing of methyl ethyl ketone and/or 2-butanol.</t>
+  </si>
+  <si>
+    <t>intensity around 1 compared to standard vanillin from guaiacol.</t>
+  </si>
+  <si>
+    <t>regular - smart vanillin toggle navigation home eurovanillin pure eurovanillin expert eurovanillin plus vanillin calculator sustainable vanillin sample desk documentations about contact us links distributors eurovanillin regular vanillin made from guaiacol.</t>
+  </si>
+  <si>
+    <t>for example, the biosynthesis of methyl ethyl ketone and/or 2-butanol can be accomplished by constructing a microbial organism that contains biosynthetic pathways for conversion of one pathway intermediate to another pathway intermediate or the product.</t>
+  </si>
+  <si>
+    <t>although lower temperatures and pressures are used, and cost savings thus provided, chloroform and tetrachloromethane are produced in higher yields than provided by conventional processes.</t>
+  </si>
+  <si>
+    <t>in some embodiments, a non-naturally occurring microbial organism of the invention is generated from a host that contains the enzymatic capability to synthesize methyl ethyl ketone and/or 2-butanol.</t>
+  </si>
+  <si>
+    <t>although processes for the direct production of tetrachloromethane are known, these conventional processes may typically require the use of high intensity process conditions, e.g., high temperatures and pressures, and yet provided poor yields and selectivities to tetrachloromethane.</t>
+  </si>
+  <si>
+    <t>in some embodiments, tetrachloromethane produced by the process may act as a solvent.</t>
+  </si>
+  <si>
+    <t>the percent tetrachloromethane in the liquid product is determined using specific gravity.</t>
+  </si>
+  <si>
+    <t>the tetrachloromethane produced by the present process may typically be processed to provide further downstream products including hydrofluoroolefins, such as, for example, 1,1,1,2,3-pentachloroproprane and/or 1,1,2,3-tetrachloropropene.</t>
+  </si>
+  <si>
+    <t>prior to the present invention, tetrachloromethane was produced mainly as a byproduct from processes for the production of perchloroethylene, and in quantities insufficient for use as a feedstock in many processes.</t>
+  </si>
+  <si>
+    <t>chloroform is produced by direct heating of methyl chloride with chlorine to 500 c. this heating process produces spontaneously a series of chloromethanes, chloromethane, dichloromethane,??trichloromethane(chloroform), and tetrachloromethane which are then separated by distillation.</t>
+  </si>
+  <si>
+    <t>tetrachloromethane ccl4+ ch4methane - springermaterials menu sign up / log in home search by elements search by structure corrosion search contact us sign up / log in landolt-b??rnstein - group iv physical chemistry tetrachloromethane ccl 4 + ch 4 methane abstract this document is part of subvolume b 'binary gaseous, liquid, near-critical, and supercritical fluid systems of nonelectrolytes' of volume 10 'heats of mixing and solution' of landolt-b??rnstein - group iv 'physical chemistry'.</t>
+  </si>
+  <si>
+    <t>nitrous oxide (laughing gas) is most commonly made by the thermal decomposition of ammonium nitrate (nh4no3).</t>
+  </si>
+  <si>
+    <t>in the way that cream chargers are used) when joseph priestley first created nitrous oxide, he did so by heating ammonium nitrate to a very high degree, in a chamber with iron filings placed inside.</t>
+  </si>
+  <si>
+    <t>projects edit make nitric acid synthesis of ammonia make nitrous oxide (laughing gas) safety edit handling edit ammonium nitrate is a sensitive oxidizer, though not as sensitive as chlorates or perchlorates, and mixtures of it with organic compounds pose a great danger in substantial amounts.</t>
+  </si>
+  <si>
+    <t>if mixed with bases, toxic and irritating ammonia gas is given off, and in high heat ammonium nitrate decomposes to form nitrous oxide , which can be a dangerous airborne oxidizer in enclosed spaces.</t>
+  </si>
+  <si>
+    <t>preparation edit nitrous oxide is prepared by the careful decomposition of ammonium nitrate , which results in nitrous oxide and water vapor.</t>
+  </si>
+  <si>
+    <t>preparation of nitrous oxide by thermal decomposition of ammonium nitrate.</t>
+  </si>
+  <si>
+    <t>process description nitrous oxide is produced by heating ammonium nitrate to a temperature of approx.</t>
+  </si>
+  <si>
+    <t>ammonium nitrate is decomposed in the process to give a mixture of nitrous oxide and super heated steam.</t>
+  </si>
+  <si>
+    <t>the process of manufacturing nitrous oxide, which comprises heating ammonium nitrate to its decomposition temperature in the presence of free ammonia, present in the order of about 1.4% of the ammonium nitrate.</t>
+  </si>
+  <si>
+    <t>the process of manufacture nitrous oxide from ammonium nitrate which comprises heating the ammonium nitrate to its decomposition tem- 35 perature in the presence of a small amount of ammonia, an aqueous solution of ammonium nitrate, containing free ammonia, being added continuously in an amount sufiicient to replace the ammonium nitrate decomposed.</t>
+  </si>
+  <si>
+    <t>in connection with the general processes of 50 making nitrous oxide by the decomposition of ammonium nitrate, temperatures of 230 to 300 c. have been mentioned in the art as temperatures at which to carry on the decomposition of the ammonium nitrate.</t>
+  </si>
+  <si>
+    <t>previous section next section production and storage nitrous oxide is produced commercially by heating ammonium nitrate to 240??c.</t>
+  </si>
+  <si>
+    <t>ammonium phosphate</t>
+  </si>
+  <si>
+    <t>decomposes to ammonia and monoammonium phosphate at around 70??c (158??f).</t>
+  </si>
+  <si>
+    <t>in the scrubber any unreacted ammonia together with any entrained ammonium phosphate are recovered by means of phosphoric acid circulated from the supply tank 20 and introduced therein via line 40 provided with a suitable valve means 41.</t>
+  </si>
+  <si>
+    <t>manufacturing procedure of di ammonium phosphate (food grade) raw materials : pure phosphoric acid (85%) ammonia gas cylinder water with nil calcium content procedure ?€? : in ss vessel take pure phosphoric acid in a measured quantity (sp.</t>
+  </si>
+  <si>
+    <t>when ammonia is added to the phosphoric acid that has not been heated, monoammonium phosphate (11-52-0) or diammonium phosphate (18-46-0) is produced depending on the ratio of the mixture.</t>
+  </si>
+  <si>
+    <t>the use of a fluidized bed reactor or a more ethylene-selective catalyst could increase the production of ethylene per ethanol basis.</t>
+  </si>
+  <si>
+    <t>ethylene and ethanol prices are market-determined and cannot be controlled for in the process design, so further optimization should be focused on minimizing the operations cost of the process.</t>
+  </si>
+  <si>
+    <t>however, a fluidized bed reactor can offer better mixing and temperature control than a fixed bed reactor and thus provide the highest possible conversion of ethanol with the greatest selectivity to ethylene.</t>
+  </si>
+  <si>
+    <t>the ethanol feed passes through two fixed-bed reactors, each packed with an aluminum oxide catalyst, and the resulting ethylene is purified by two flash tanks and by absorption with water.</t>
+  </si>
+  <si>
+    <t>a nanoscale hzsm-5 zeolite catalyst has been shown to operate at the relatively low temperature of 200-300??c, with a 100% ethanol conversion and 99.7% selectivity to ethylene.</t>
+  </si>
+  <si>
+    <t>in summary, the proposed process yields chemical grade ethylene via the catalytic dehydration of ethanol.</t>
+  </si>
+  <si>
+    <t>the top outlet stream consists of 99.5 wt% ethylene, which is fed to the bottom of a 10-tray absorption column that removes a fraction of the residual diethyl ether as well as the remainder of the unreacted ethanol.</t>
+  </si>
+  <si>
+    <t>morschbacker, a. bio-ethanol based ethylene.</t>
+  </si>
+  <si>
+    <t>ethylene formation by catalytic dehydration of ethanol with industrial considerations.</t>
+  </si>
+  <si>
+    <t>ethylene can be produced from bioethanol via catalytic dehydration over an aluminum oxide catalyst.</t>
+  </si>
+  <si>
+    <t>process alternatives reactor alternatives two fixed bed reactors, alternating with fired heaters, are used in the dehydration reaction of ethanol to ethylene.</t>
+  </si>
+  <si>
+    <t>production of ethylene from ethanol.</t>
+  </si>
+  <si>
+    <t>commercial ripening rooms use "catalytic generators" to make ethylene gas from a liquid supply of ethanol.</t>
+  </si>
+  <si>
+    <t>a literature review on polyethylene from ethanol/research development details the major steps of the process, technologies employed, and applicable details to an ose standard.</t>
+  </si>
+  <si>
+    <t>the project can be broken down based on producing high quality substrates: ethanol, ethylene, and polyethylene.</t>
+  </si>
+  <si>
+    <t>the process of ethanol to ethylene has broad development prospects.</t>
+  </si>
+  <si>
+    <t>compared with the process of petroleum to ethylene, ethanol dehydration to ethylene is economically feasible.</t>
+  </si>
+  <si>
+    <t>e-mail: yuyingzhe@tju.edu.cn abstract this article is an up-to-date review of the literature available on the subject of ethanol to ethylene.</t>
+  </si>
+  <si>
+    <t>antidotes fomepizole or ethanol should be administered intravenously as soon as possible to block the conversion of ethylene glycol to formic acid and prevent acidosis.</t>
+  </si>
+  <si>
+    <t>green ethylene from ethanol via dehydration.</t>
+  </si>
+  <si>
+    <t>stream 500 contains our ethylene, along with several byproducts, water, and unreacted ethanol.</t>
+  </si>
+  <si>
+    <t>though somewhat less common, we were also able to find several examples of plants which produce ethylene with ethanol as a starting feed (tsao 1979; cameron 2012; intratec solutions 2013).</t>
+  </si>
+  <si>
+    <t>the yield of ethylene on ethanol, as mentioned previously, approaches 99 percent.</t>
+  </si>
+  <si>
+    <t>the conversion of ethanol to ethylene takes place in a train of catalytic fixed bed reactors.</t>
+  </si>
+  <si>
+    <t>the fluidized bed reactor 11 is maintained at dehydration reaction conditions, as hereinabove described, to effect dehydration of the ethanol to ethylene.</t>
+  </si>
+  <si>
+    <t>in the conventional process of converting ethanol to ethylene, such conversion is effected in a reactor containing long parallel vertical tubes packed with a dehydration catalyst, such as alumina.</t>
+  </si>
+  <si>
+    <t>an object of the present invention is to provide a new and improved process for producing ethylene from ethanol.</t>
+  </si>
+  <si>
+    <t>while most ethylene today is petroleum based, the baskrem process returns to the roots of ethylene production which historically was from ethanol.</t>
+  </si>
+  <si>
+    <t>generating ethylene from ethanol is essentially a dehydration process, using a catalyst and heat.</t>
+  </si>
+  <si>
+    <t>the green polyethylene project is built upon the highly developed brazilian sugar cane ethanol industry.</t>
+  </si>
+  <si>
+    <t>the company is the largest industrial consumer of ethanol in brazil, absorbing around 700 million liters per year for the production of green polyethylene and the fuel additive etbe.</t>
+  </si>
+  <si>
+    <t>4 , 7 when ethanol or fomepizole is administered and renal failure is present, dialysis is the only method for removal of ethylene glycol.</t>
+  </si>
+  <si>
+    <t>4 intravenous administration of ethanol, described in table 4 , 15 , 16 should be continued until ethylene glycol levels have been reduced below 20 mg per dl and the metabolic acidosis has been corrected.</t>
+  </si>
+  <si>
+    <t>laboratory testing inethanol, methanol, ethylene glycol, and iso-propanol toxicities.</t>
+  </si>
+  <si>
+    <t>4 clinical manifestations jump to section + abstract pathophysiology clinical manifestations illustrative case diagnosis treatment references ethylene glycol produces cns depression similar to that of ethanol.</t>
+  </si>
+  <si>
+    <t>antidotes formethanol and ethylene glycol poisoning.</t>
+  </si>
+  <si>
+    <t>4 traditional treatment of ethylene glycol poisoning consists of sodium bicarbonate, ethanol, and hemodialysis.</t>
+  </si>
+  <si>
+    <t>as with ethyl alcohol and methanol, ethylene glycol is metabolized by the enzyme alcohol dehydrogenase.</t>
+  </si>
+  <si>
+    <t>tetrachloroethylene</t>
+  </si>
+  <si>
+    <t>tetrachloroethylene is produced mainly by oxyhydrochlorination, perchlorination, and/or dehydrochlorination of hydrocarbons or chlorinated hydrocarbons such as: 1,2 dichloroethane, methane, ethane, propane, propylene, propylene dichloride, 1,1,2-tri- chloroethane, and acetylene (fuller, 1976; iarc, 1979).</t>
+  </si>
+  <si>
+    <t>isopropyl ether</t>
+  </si>
+  <si>
+    <t>the selectivity for the byproducts was about 28 and 3 mole percent for diisopropyl ether and propene polymerizates, respectively.</t>
+  </si>
+  <si>
+    <t>you would synthesize the ethyl isopropyl ether as a byproduct of treating propene with hci in ethanol.</t>
+  </si>
+  <si>
+    <t>1, a process flow diagram depicts production of diisopropyl ether by hydration of fresh olefinic feedstock stream, which is introduced as a propane-propene mixture via inlet 1 to feed splitter tower 2 to recover a propane-rich bottoms stream 3, which will also contain any c 4 + components in the feedstock.</t>
+  </si>
+  <si>
+    <t>[4] formamide will begin to partially decompose into carbon monoxide and ammonia at 180????c together with traces of hydrogen cyanide (hcn) and water.</t>
+  </si>
+  <si>
+    <t>it is an object of the present invention to provide a process in which the direct synthesis of formamide from carbon monoxide and ammonia proceeds in such a way that the product can easily be separated from the reaction mixture and, in addition, the catalyst is recovered and reused.</t>
+  </si>
+  <si>
+    <t>formamide is generally prepared from the raw materials carbon monoxide and ammonia.</t>
+  </si>
+  <si>
+    <t>in a further embodiment, the process for preparing formamide by reaction of ammonia and carbon monoxide takes place in the presence of the catalyst sodium diformylamide and a further active component in a reactor to form a formamide-containing reaction mixture and the reaction mixture is subsequently worked up in an apparatus.</t>
+  </si>
+  <si>
+    <t>a process for preparing formamide by reaction of ammonia and carbon monoxide in the presence of at least one catalyst and at least one alcohol in a reactor, wherein the formamide containing reaction mixture is fed out of the reactor into a separate apparatus and worked-up there and the catalyst, being sodium methoxide and/or sodium diformylamide, is separated off in the apparatus and returned into the reactor.</t>
+  </si>
+  <si>
+    <t>we have found that this object is achieved by a process for preparing formamide by reaction of ammonia and carbon monoxide in the presence of at least one catalyst if sodium diformylamide is used as catalyst.</t>
+  </si>
+  <si>
+    <t>the present invention relates to a process for preparing formamide by reaction of ammonia and carbon monoxide.</t>
+  </si>
+  <si>
+    <t>the reaction of ammonia and carbon monoxide proceeds according to the following simplified reaction scheme: in the novel process for preparing formamide, the reaction is usually carried out at from 50 to 200?? c., preferably from 100 to 110?? c. in general, the reaction takes place at pressures of from 10 to 200 bar.</t>
+  </si>
+  <si>
+    <t>a method of selectively removing carbon monoxide from a gas stream which comprises contacting said gas stream with an absorbent containing as essential ingredients a cuprous salt, formamide and a material selected from the group consisting of ethers, amines, pyridine, nitriles, nitroparaffins, nitroaromatics and olefins to absorb at least a portion of said carbon monoxide from said gaseous stream into said absorbent to form a carbon monoxide containing absorbent.</t>
+  </si>
+  <si>
+    <t>dimethylformamide can be synthesized from methyl formate and dimethyl amine or reaction of dimethyl amine and carbon monoxide.</t>
+  </si>
+  <si>
+    <t>dimethyl formamide is produced either with catalyzed reaction of dimethyl amine and carbon monoxide in methanol or the reaction of methyl formate with dimethyl amine.</t>
+  </si>
+  <si>
+    <t>as one of the most important chemical, the carbon monoxide obtained can be used for making acetic acid, acetic anhydride, oxalate, ethylene glycol, oxalic acid, dimethyl formamide, dimethyl carbonate, formic acid, phosgene synthesis (tdi, mdi), and so on.</t>
+  </si>
+  <si>
+    <t>dimethyl formamide is produced either with catalyzed reaction of dimethylamine and carbon monoxide in methanol or the reaction of methyl formate with dimethylamine.</t>
+  </si>
+  <si>
+    <t>description: the present invention relates to a process for preparing formamide by reaction of ammonia and carbon monoxide.</t>
+  </si>
+  <si>
+    <t>production of formamide using sodium diformylamide - abbott laboratories login sign up search expert search quick search patents/apps non-patent literature search research mpep 2.0 tools &amp; resources acclaim ip help title: production of formamide using sodium diformylamide united states patent 6441234 abstract: in the process for preparing formamide by reaction of ammonia and carbon monoxide in the presence of at least one catalyst, sodium diformylamide is used as catalyst.</t>
+  </si>
+  <si>
+    <t>this result agrees well with the implication that the initial step toward the synthesis of formamide is the bond rupture of ammonia, i.e., the more ammonia present, the more it will undergo hydrogen bond rupture producing higher concentrations of nh 2 and hydrogen atom to react with carbon monoxide.</t>
+  </si>
+  <si>
+    <t>sorbic acid</t>
+  </si>
+  <si>
+    <t>there, high sorbic acid yields can be obtained only if a processing method is used that is adapted to the catalyst used during the conversion of ketene with crotonaldehyde.</t>
+  </si>
+  <si>
+    <t>the main use of crotonaldehyde is to prepare sorbic acid and crotonic acid by oxidation.</t>
+  </si>
+  <si>
+    <t>however, for industrial use, sorbic acid is produced synthetically by connecting malonic acid and crotonaldehyde.</t>
+  </si>
+  <si>
+    <t>crotonaldehyde was formerly used in the manufacture of n-butanol, but currently, the most extensive use of crotonaldehyde is in the manufacture of sorbic acid.</t>
+  </si>
+  <si>
+    <t>crotonaldehyde is mainly used in the manufacture of sorbic acid, which is a yeast and mold inhibitor.</t>
+  </si>
+  <si>
+    <t>crotonaldehyde is a key raw material in manufacturing sorbic acid, as such, the growing demand for sorbic acid is expected to in turn result in growth of global crotonaldehyde market.</t>
+  </si>
+  <si>
+    <t>crotonaldehyde is used majorly used as a raw material for preparation of sorbic acid and crotonic acid.</t>
+  </si>
+  <si>
+    <t>sorbic acid was made from crotonaldehyde and malonic acid in pyridine.</t>
+  </si>
+  <si>
+    <t>sorbic acid , a food preservative, and trimethylhydroquinone, a precursor to the vitamin e, are prepared from crotonaldehyde.</t>
+  </si>
+  <si>
+    <t>crotonaldehyde is used primarily for the manufacture of sorbic acid and other organic chemicals.</t>
+  </si>
+  <si>
+    <t>in the dow process , magnesium chloride is regenerated from magnesium hydroxide using hydrochloric acid : mg(oh) 2 ( s ) + 2 hcl ??? mgcl 2( aq ) + 2 h 2 o ( l ) it can also be prepared from magnesium carbonate by a similar reaction.</t>
+  </si>
+  <si>
+    <t>hydrochloric acid reacts with magnesium hydroxide to produce magnesium chloride and water.</t>
+  </si>
+  <si>
+    <t>start your product search here: all products magnesium carbonate magnesium hydroxide magnesium oxide magnesium chloride magnesite - raw magnesite further magnesium compounds calcium carbonate further calcium compounds ferrous compounds potassium compounds sodium compounds zinc compounds further chemicals all qualities pharmaceutical chemically pure technical food product list you will find an alphabetical list of all available chemical compounds here.</t>
+  </si>
+  <si>
+    <t>magnesium hydroxide has long been produced from magnesium chloride-containing brines by various processes employing dolomitic stones and limestones.</t>
+  </si>
+  <si>
+    <t>such procedure converts substantially all the remaining calcium chloride into calcium carbonate and forms magnesium chloride, while the excess of magnesium hydroxide is converted into magnesium carbonate.</t>
+  </si>
+  <si>
+    <t>the invention relates to a method of producing a magnesium chloride solution from a calcium chloride solution, by treating the latter with magnesium carbonate or magnesium hydroxide and carbon dioxide.</t>
+  </si>
+  <si>
+    <t>the action of hydrochloric acid on magnesium hydroxide produces magnesium chloride , mgcl 2 , a colourless, deliquescent (water-absorbing) substance employed in magnesium metal production, in the manufacture of a cement for heavy-duty flooring, and as an additive in textile manufacture.</t>
+  </si>
+  <si>
+    <t>the blue color indicates the watery layer containing dissolved magnesium chloride that has formed above the settled magnesium hydroxide particles.</t>
+  </si>
+  <si>
+    <t>ethylenediamine</t>
+  </si>
+  <si>
+    <t>ethylene dichloride</t>
+  </si>
+  <si>
+    <t>deta is a byproduct of the production of ethylenediamine from ethylene dichloride .</t>
+  </si>
+  <si>
+    <t>then react the ethylene dichloride with ammonia to get ethylenediamine which is then reacted with ammonium nitrate according to the patent to yield eddn or even an eutectic of an and eddn by varing the reactants.</t>
+  </si>
+  <si>
+    <t>projects edit ethylenediamine synthesis make pvc safety edit ethylene dichloride is toxic (by inhalation), flammable, and a carcinogen .</t>
+  </si>
+  <si>
+    <t>one of the commercially important ways to manufacture n-propyl acetate is by the catalytic esterification of n-propanol with acetic acid.</t>
+  </si>
+  <si>
+    <t>thus in the esterification of n-propanol with acetic acid to form n-propyl acetate and water, the rectification of this mixture has three binary and a ternary azeotrope to contend with, and yields the lowest boiling constituent, namely the n-propyl acetate--n-propanol--water ternary azeotrope.</t>
+  </si>
+  <si>
+    <t>isobutyl acrylate</t>
+  </si>
+  <si>
+    <t>the block, or blocks, comprising both isobutyl acrylate and acrylic acid (block a and optionally a?€?) represent(s) in total preferably 5% to 55% by weight, in particular 10% to 50% by weight, or even 15% to 47% by weight, even better still 20% to 44% by weight, of the total weight of the block polymer.</t>
+  </si>
+  <si>
+    <t>preferably, the block a comprising the isobutyl acrylate and the acrylic acid, or the set of these blocks if there are more than one, has a number-average molecular weight (mn) of between 5000 and 50 000 g/mol, preferably between 7000 and 45 000.</t>
+  </si>
+  <si>
+    <t>photolysis of ethanethiol r. p. steer, a. r. knight canadian journal of chemistry , 1969, 47(8): 1335-1345, 10.1139/v69-219 abstract the photolysis of ethanethiol vapor in the pressure range 10 to 350 torr and the effect of % decomposition, wavelength, and of added inert gas and ethylene on the rate of formation of the products has been determined.</t>
+  </si>
+  <si>
+    <t>this ethanethiolate surface intermediate primarily decomposes to form ethane and ethylene, but also undergoes some non-selective decomposition to surface carbon, sulfur, and gaseous hydrogen.</t>
+  </si>
+  <si>
+    <t>in this experiment you will be preparing the ester ethyl benzoate by warming ethanol and benzoic acid in a plastic pipette in a water bath.</t>
+  </si>
+  <si>
+    <t>in this experiment, you will isolate the product, methyl benzoate and any unreacted benzoic acid.</t>
+  </si>
+  <si>
+    <t>esterification of methyl benzoate from benzoic acid essay - 568 words studymode - premium and free essays, term papers &amp; book notes essays resource center sign up sign in sign up sign in products home essays drive answers texty about company legal site map contact us advertise ??2016 studymode.com exclusive home &gt; essays &gt; esterification of methyl...</t>
+  </si>
+  <si>
+    <t>ethyl benzoate image source: pubchem health concerns of the ingredient: overall hazard cancer developmental &amp; reproductive toxicity allergies &amp; immunotoxicity use restrictions other high concerns: persistence and bioaccumulation ; other moderate concerns: organ system toxicity (non-reproductive) ; other low concerns: data gaps about ethyl benzoate : ethyl benzoate is an ester of ethyl alcohol and benzoic acid (q.v.).</t>
+  </si>
+  <si>
+    <t>it is therefore impossible to produce n-butyl acetate from n-butanol and water mixtures by rectification because the lower boiling ternary azeotrope will always come off overhead as the initial product.</t>
+  </si>
+  <si>
+    <t>n-butyl acetate can be readily removed from mixtures containing it, n-butanol and water by using extractive distillation in which the extractive...</t>
+  </si>
+  <si>
+    <t>one of the commercially important ways to manufacture n-butyl acetate is by the catalytic esterification of n-butanol with acetic acid.</t>
+  </si>
+  <si>
+    <t>in the decanter, the distillate was separated into two phases: the upper phase was organic and contained mainly butanol, butyl acetate and water, while the lower phase was mainly water.</t>
+  </si>
+  <si>
+    <t>preparation edit butyl acetate is synthesized via the fischer esterification of n-butanol and acetic acid with the presence of catalytic sulfuric acid under reflux.</t>
+  </si>
+  <si>
+    <t>n-butanol applications such as direct solvent, butyl acrylate, butyl acetate are expected to show high growth in the forecast period.</t>
+  </si>
+  <si>
+    <t>in this work, the production of n -butyl acetate from dilute acetic acid and n -butanol was investigated using commercial aspen plus program.</t>
+  </si>
+  <si>
+    <t>abstract a new lipase preparation from rhizopus oryzae was used to catalyze the esterification reaction between acetic acid and butanol to produce butyl acetate ester (pineapple flavor).</t>
+  </si>
+  <si>
+    <t>methyl amine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">methanol </t>
+  </si>
+  <si>
+    <t>4. process for the production of methyl amine which comprises passing a gaseous mixture comprising one part methanol and one to six parts ammonia at about 400 c. and at a space velocity of about 1100 over metallic oxide dehydrating catalysts.</t>
+  </si>
+  <si>
+    <t>according to the present invention, however, it 'is shown that the ratios of the diflerent methyl amines found by the reaction between-ammonia and methanol may be regulated within certain determined limits by careful regulation of such factors as catalyst, rate of flow of reactants, temperature, ratio of ammonia to methanol, etc.</t>
+  </si>
+  <si>
+    <t>5. a process for the production of methyl amine, the steps which comprise passing a mixture of methanol with a molecular excess of ammonia at temperatures ranging from 300 to 500 c. over catalysts comprising aluminium oxide.</t>
+  </si>
+  <si>
+    <t>in the past methyl amine has been prepared synthetically by a number of different methods, among which is the process of using ammonia and methanol as the reactants.</t>
+  </si>
+  <si>
+    <t>process for the production of methyl amine which comprises passing a gaseous mixture comprising one part methanol and one to six parts ammonia at temperatures ranging from 300 to 500 c. over metallic oxide dehydrating catalysts.</t>
+  </si>
+  <si>
+    <t>3. process for the production of methyl amine which comprises passing a gaseous -mixture comprising one part methanol and one to six parts ammonia at about 400 c. over metallic oxide dehydrating catalysts.</t>
+  </si>
+  <si>
+    <t>extensive investigations have shown that up to the present time it is not possible to react ammonia and methanol and obtain only the monomethyl amine as has been claimed by prior workers.</t>
+  </si>
+  <si>
+    <t>process for the production of methyl amine which comprises passing methanol with a molecular excess of ammonia at temperatures ranging from 300 to 500 c. and at space velocities ranging from 100 to 3500 over metallic oxide dehydrating catalysts.</t>
+  </si>
+  <si>
+    <t>manufacture and applications of melamine melamine can be manufactured from dicyandiamide, hydrogen cyanide , or urea .</t>
+  </si>
+  <si>
+    <t>although many manufacturers switched to the use of more-efficiently metabolized npns such as urea, melamine use in animal feeds persisted, particularly in china , where manufacturers illegally added large amounts of melamine to a variety of products to pass industry tests, specifically the dumas test and the kjeldahl method .</t>
+  </si>
+  <si>
+    <t>urea is broken down to cyanuric acid, which then can be reacted to form melamine.</t>
+  </si>
+  <si>
+    <t>learn more in these related articles: in major industrial polymers: melamine-formaldehyde polymers these compounds are similar to urea-formaldehyde resins in their processing and applications.</t>
+  </si>
+  <si>
+    <t>bromopropane</t>
+  </si>
+  <si>
+    <t>propene in turn undergoes addition reactions , such as hydrogen addition to reform propane, and hbr addition to give 2-bromopropane.</t>
+  </si>
+  <si>
+    <t>treatment of either bromopropane isomer with an alcohol solution of koh generates propene by an elimination reaction (h and br are lost).</t>
+  </si>
+  <si>
+    <t>use a strong base (ethoxide) to dehydrohalogenate 2-bromopropane to propene.</t>
+  </si>
+  <si>
+    <t>1-butanethiol</t>
+  </si>
+  <si>
+    <t>1-butane</t>
+  </si>
+  <si>
+    <t>general description 3-methyl-1-butanethiol is one of the volatile components obtained by the gc-ms analysis of the anal sac secretion from the spotted skunk, spilogale putorius .</t>
+  </si>
+  <si>
+    <t>in the reaction of 1-butanethiol and deuterium atoms, monodeuterated 1-butane- thiol was observed by a photo-ionizing mass spectrometer.</t>
+  </si>
+  <si>
+    <t>the n -butane and 1-butene are considered to be produced via chemically activated 1-butanethiol on the basis of the pressure dependence of the two main products.</t>
+  </si>
+  <si>
+    <t>also found by anderson and burnstein were minor amounts of two other compounds, 3-methyl-1-butanethiol and trans-2-butenyl methyl disulfide.</t>
+  </si>
+  <si>
+    <t>step b: preparation of s-acetyl-3-acetoxy-4-benzyloxy-1-butanethiol a solution of thiolacetic acid (10.0 g., 0.13 mole) and 4-benzyloxy-3-acetoxy-1-butene (21.0 g., 0.096 mole) containing benzoxyl peroxide (50 mg.) is stirred at room temperature for 20 hours.</t>
+  </si>
+  <si>
+    <t>in steam-methane reforming, methane reacts with steam under 3?€?25 bar pressure (1 bar = 14.5 psi) in the presence of a catalyst to produce hydrogen, carbon monoxide, and a relatively small amount of carbon dioxide.</t>
+  </si>
+  <si>
+    <t>hydrogen is combined with co 2 from the atmosphere, with methane then stored as fuel and the water side product electrolyzed yielding oxygen to be liquefied and stored as oxidizer and hydrogen to be recycled back into the reactor.</t>
+  </si>
+  <si>
+    <t>as half of the input hydrogen becomes wasted as methane, additional hydrogen is supplied from earth to make up the difference.</t>
+  </si>
+  <si>
+    <t>in the chemical industry, methane is a raw material for the manufacture of methanol (ch 3 oh), formaldehyde (ch 2 o), nitromethane (ch 3 no 2 ), chloroform (ch 3 cl), carbon tetrachloride (ccl 4 ), and some freons (compounds containing carbon and fluorine, and perhaps chlorine and hydrogen).</t>
+  </si>
+  <si>
+    <t>methane is synthesized commercially by the distillation of bituminous coal and by heating a mixture of carbon and hydrogen.</t>
+  </si>
+  <si>
+    <t>thiazole</t>
+  </si>
+  <si>
+    <t>thioformamide</t>
+  </si>
+  <si>
+    <t>the method of preparing 4-methyl-5-(b- hydroxyethydthiazole comprising reacting thioformamide with a dihalo compound from the group consisting of 2,3-dichlorotetrahydro-z- methylfuran and 2,3 dibromotetrahydro 2- methylfuran.</t>
+  </si>
+  <si>
+    <t>usually the mole ratio of thioformamide to the dihalo compound will be within the range 0.521 to 3.021, the preferred range being 1.75:1 to 2.021 since within this range the best yields of the desired thiazole compound are obtained.</t>
+  </si>
+  <si>
+    <t>8. the method comprising reacting thioformamide with a dihalo compound from the group consisting of 2,3-dichlorotetrahydro-2-methylfuran and 2,3-dibromotetrahydro-z-methylfuran in the presence of a solvent, said thioformamide and said dihalo compound being supplied to the reaction mixture in amounts corresponding to a mole ratio of the former to the latter within the range 0.5:1 to 3.0: 1, and recovering 4-methyl- 5-(b-hydroxyethyl)-thiazole from the reaction mixture.</t>
+  </si>
+  <si>
+    <t>5. the method of preparing 4-methy1-5-(fihydroxyethydthiazole comprising reacting thioformamide with a dihalo compound from the group consisting of 2,3-dichlorotetrahydro-2- methylfuran and 2,3 dibromotetrahydro 2- methylfuran in a solvent at a temperature of 15 to 100 c.</t>
+  </si>
+  <si>
+    <t>260--302)' this invention relates to the preparation of 4-methyl-5-(fi-hydroxyethyl) -thiazole by the reaction of 2,3- dichl-orotetrahydro-2- methylfuran, or the corresponding dibromo compound, with thioformamide, as illustrated by the following equation in which use of the dichloro compound is shown: 2, 3-dichlorotetrahy- thioformamide dro-2-methylfuran bromo-b-acetopropyl acetate with barium thio-, cyanate, followed byrearrangement (u. s. p. 2,139,570).</t>
+  </si>
+  <si>
+    <t>possible role of thioformamide as a proximate toxicant in the nephrotoxicity of thiabendazole and related thiazoles in glutathione-depleted mice: structure-toxicity and metabolic studies.</t>
+  </si>
+  <si>
+    <t>these observations and the known toxicity of thiono-sulfur compounds led us to the hypothesis that the nephrotoxic thiazoles, which lack 2-substituents, would undergo microsomal epoxidation of the c-4,5 double bond and, after being hydrolyzed, the resulting epoxide would then be decomposed to form thioformamide, a possibly toxic metabolite.</t>
+  </si>
+  <si>
+    <t>the process for producing a thiazole derivative according to claim 1, wherein after reacting the thioformamide, iodine is further added and the mixture is reacted.</t>
+  </si>
+  <si>
+    <t>provided are a process for producing a novel thiazole derivative represented by the general formula (i), which is characterized by adding a strong base to a thioamide represented by the general formula (ii) and reacting the mixture with a thioformamide represented by the general formula (iii), and a novel thiazole derivative.</t>
+  </si>
+  <si>
+    <t>phosphorus trichloride gas and chlorine gas react to form phosphorus pentachloride gas.?</t>
+  </si>
+  <si>
+    <t>phosphorus trichloride gas and chlorine gas react to formphosphorus pentachloride gas.</t>
+  </si>
+  <si>
+    <t>industrial chemicals wiley-interscience 1975 material requirements basis- 1 metric ton phosphorus trichloride phosphorus 238 kg chlorine 815 kg process phosphorus trichloride is made by direct union of the elements in an exothermic and spontaneous reaction.</t>
+  </si>
+  <si>
+    <t>phosphorus trichloride is produced by reacting yellow phosphorus with chlorine.</t>
+  </si>
+  <si>
+    <t>phosphorus trichloride gas and chlorine gas react to form phosphorus pentachloride?</t>
+  </si>
+  <si>
+    <t>preparation phosphorus trichloride is prepared industrially by the reaction of chlorine with a refluxing solution of white phosphorus in phosphorus trichloride, with continuous removal of pcl 3 as it is formed.</t>
+  </si>
+  <si>
+    <t>a simple and commonly used method for the preparation of ethyl benzoate in laboratory is the acidic esterification of benzoic acid with ethanol and sulfuric acid as catalyst: [2] references [ edit ] ^ ethyl benzoate , thegoodscentscompany.com ^ arthur israel vogel.</t>
+  </si>
+  <si>
+    <t>thalidomide</t>
+  </si>
+  <si>
+    <t>methyl chloride</t>
+  </si>
+  <si>
+    <t>glutamine triggers acetylation-dependent degradation of glutamine synthetase via the thalidomide receptor cereblon.</t>
+  </si>
+  <si>
+    <t>two ways of making methyl chloride are technically in use: chlorination of methane with chlorine or reaction of methanol with hydrogen chloride.</t>
+  </si>
+  <si>
+    <t>[6] preparation [ edit ] methanethiol is prepared commercially by the reaction of methanol with hydrogen sulfide gas over an acidic solid catalyst, such as alumina : [7] ch 3 oh + h 2 s ??? ch 3 sh + h 2 o although impractical, it can be prepared by the reaction of methyl iodide with thiourea .</t>
+  </si>
+  <si>
+    <t>a process for the preparation of thalidomide (i) in a single reactor, comprising: a) the reaction of glutamine (ii) with a phthaloylating agent to give n-phthaloyl-glutamine (vi) b) the direct conversion of n-phthaloyl-glutamine (vi) to thalidomide by addition of a condensing agent, characterized in that it is carried in a polar aprotic solvent selected from pyridine, lutidine, collidine, dimethyl-sulfoxide, n-methyl-pyrrolidone, n,n-dimethyl-acetamide, n,n-dimethyl-formamide and acetonitrile.</t>
+  </si>
+  <si>
+    <t>the synthesis of methanethiol from methanol and carbon disulfide, however, is seldom reported and needs to be explored in more detail.</t>
+  </si>
+  <si>
+    <t>triethanolamine, also known as tea, is a reactionary byproduct of two toxic substances: ethylene oxide and ammonia.</t>
+  </si>
+  <si>
+    <t>the intermediate chemical hydroxypivaldehyde is then subjected to catalytic dehydrogenation to convert an aldehyde group to alcohol group to obtain neopentyl glycol (npg).</t>
+  </si>
+  <si>
+    <t>[0011] it has now been found that the use of other solvents than tetrahydrofuran allows to prepare thalidomide from glutamine in a single reactor.</t>
+  </si>
+  <si>
+    <t>therefore, the method of the synthesis of methanethiol from carbon disulfide and methanol can make up for the defect of that from methanol and hydrogen sulfide.</t>
+  </si>
+  <si>
+    <t>the manufacture of pentaerythritol has been known for many years and, as stated in the above paragraph, is based on the reaction of formaldehyde with acetaldehyde in a basic medium.</t>
+  </si>
+  <si>
+    <t>in acid conditions the solution produced will have a high hypochlorous acid concentration, but will also contain dissolved gaseous chlorine, which can be corrosive, at a neutral ph the solution will be around 75% hypochlorous acid and 25% hypochlorite.</t>
+  </si>
+  <si>
+    <t>for example, when an excess of ammonia is used the reaction product consists mainly of monoethanolamine, whereas a fairly large excess of ethylene oxide favours the formation of triethanolamine.</t>
+  </si>
+  <si>
+    <t>[0010] the preparation of thalidomide by cyclization of n-phthaloyl-glutamine with acetic anhydride [king, f. e. et al.</t>
+  </si>
+  <si>
+    <t>the catalyst system, which was applied to catalyze the synthesis of methanethiol from methanol and hydrogen sulfide, was found to be a transition metal oxide-supported and alkali metal-promoted ????-alumina catalyst [14] , [15] , [16] and [17] .</t>
+  </si>
+  <si>
+    <t>also formed are dipentaerythritol, tripentaerythritol and polipentaerythritols in general, the proportions of which in the reaction liquor are increased if the proportion of formaldehyde added relative to the acetaldehyde is reduced.</t>
+  </si>
+  <si>
+    <t>the disassociation curve below illustrates the relationship between the chemical forms of chlorine and ph at 20?? c. the graph indicates a significant change in the ratio of hypochlorous acid to hypochlorite between ph 6 and 9, within the typical ph range for drinking water treatment.</t>
+  </si>
+  <si>
+    <t>yet another object of this invention is to provide a continuous new process for the manufacture of neopentyl glycol that does not require the separation of the intermediate, hydroxypivaldehyde.</t>
+  </si>
+  <si>
+    <t>(2016) glutamine triggers acetylation-dependent degradation of glutamine synthetase via the thalidomide receptor cereblon.</t>
+  </si>
+  <si>
+    <t>as estimated from figures presented by the world meteorological organization (wmo), methyl chloride contributes approximately 15% of the total equivalent effective stratospheric chlorine.</t>
+  </si>
+  <si>
+    <t>the synthesis of pentaerythritol involves the reaction of four moles of formaldehyde and one mole of acetaldehyde.</t>
+  </si>
+  <si>
+    <t>when chlorine is added to water in any of these forms, it creates hypochlorous acid.</t>
+  </si>
+  <si>
+    <t>(1994) claim that the contribution of methyl chloride to the stratospheric chlorine budget is significant.</t>
+  </si>
+  <si>
+    <t>sodium bisulfite will release sulfur dioxide gas when reacting with mild acidic conditions.</t>
+  </si>
+  <si>
+    <t>a certain amount of methyl chloride reaches the strato sphere; there, photodissociation generates chlorine radi cals, which contribute to ozone depletion.</t>
+  </si>
+  <si>
+    <t>sodium bisulfite can be prepared by bubbling sulfur dioxide gas into carbonated water.</t>
+  </si>
+  <si>
+    <t>the method currently used to quantitate glutamine in thalidomide drug substance and products is thin-layer chromatography (tlc) with ninhydrin spray visualization [9] .</t>
+  </si>
+  <si>
+    <t>however, as estimated from figures presented by wmo (1994), methyl chloride contributes approximately 15% (0.5 ppb) of the total (3.3 ppb) equivalent effective stratospheric chlorine.</t>
+  </si>
+  <si>
+    <t>in addition, to develop a feed additive with regard to the places where natural gas is lacking especially, the route of the synthesis of methanethiol from carbon disulfide and methanol would be attractive and promising.</t>
+  </si>
+  <si>
+    <t>the linearity was 0.05?€?1.25% glutamine with respect to a nominal concentration of 8 mg ml ???1 thalidomide sample.</t>
+  </si>
+  <si>
+    <t>esterification and quaternization the esterification of the fatty acids with the triethanolamine or the ethylene oxide/triethanolamine adduct may be carried out by methods known per se, cf.</t>
+  </si>
+  <si>
+    <t>therefore, glutamine is monitored in both thalidomide drug substance and pharmaceutical dosage forms.</t>
+  </si>
+  <si>
+    <t>the following pie chart shows world consumption of acetaldehyde: production of pyridine and pyridine bases, pentaerythritol, and acetate esters accounted for 16%, 16%, and 14%, respectively, of 2012 global acetaldehyde consumption.</t>
+  </si>
+  <si>
+    <t>the principle product is monoethanolamine and secondary products of diethanolamine and triethanolamine are produced since ethylene oxide is reactive.</t>
+  </si>
+  <si>
+    <t>the tropospheric reactive chlorine burden of approximately 8.3 ?? 10 6 tonnes chlorine is dominated by methyl chloride (~45%) and trichloroethane (~25%) (graedel &amp; keene, 1995).</t>
+  </si>
+  <si>
+    <t>the total yield of pentaerythritol thus obtained amounted to 54 parts, or an 80% yield based on s the acetaldehyde.</t>
+  </si>
+  <si>
+    <t>monoethanolamine is produced by reacting ethylene oxide with aqueous ammonia; the reaction also produces diethanolamine and triethanolamine.</t>
+  </si>
+  <si>
+    <t>therefore, it was desired to explore alternative, quantitative chromatographic techniques as potential replacements of tlc for quantitating glutamine in thalidomide drug substance and products.</t>
+  </si>
+  <si>
+    <t>more particularly, it is concerned with an improved method for recovering pentaerythritol from the crude reaction mixture of acetaldehyde and formaldehyde.</t>
+  </si>
+  <si>
+    <t>in this autoclave system the hydroxypivaldehyde is reduced to produce neopentyl glycol.</t>
+  </si>
+  <si>
+    <t>this newly developed hplc method was used to determine glutamine in thalidomide drug substances and products.</t>
+  </si>
+  <si>
+    <t>the simplest chlorinated hydrocarbon is methyl chloride, which consists of one atom of carbon, three of hydrogen and one of chlorine.</t>
+  </si>
+  <si>
+    <t>pentaerythritol has been prepared according to different procedures described in the art by the condensation of acetaldehyde with formaldehyde in the presence of an alkaline catalyst.</t>
+  </si>
+  <si>
+    <t>in the microchannel reactor ethylene oxide conversion and triethanolamine yield appear to be higher due to the more efficient mixing of initial reagents and far more intensive heat transfer.</t>
+  </si>
+  <si>
+    <t>surprisingly, treatment of the discharged purge stream with sulfur dioxide can result in a commercially viable sodium bisulfite product.</t>
+  </si>
+  <si>
+    <t>the recovery of glutamine at three concentration levels was found to be 100.8??2.8% from placebo and 99.2??5.8% from spiked thalidomide drug substances.</t>
+  </si>
+  <si>
+    <t>abstract triethanolamine synthesis from ammonia and ethylene oxide in a continuous flow microchannel reactor has been studied in a wide range of temperatures and residence times.</t>
+  </si>
+  <si>
+    <t>one method of reducing the hydroxypivaldehyde to neopentyl glycol is hydrogenation in the presence of a raney nickel catalyst.</t>
+  </si>
+  <si>
+    <t>the thalidomide molecule, a synthetic derivative of glutamine, can undergo hydrolysis at physiologic ph to form glutamine as a degradant [7] , additionally, l -glutamine is one of the starting materials in the synthesis of thalidomide drug substances [8] .</t>
+  </si>
+  <si>
+    <t>product overview acetaldehyde: definition major end-use segments acetate esters pentaerythritol pyridine others 1,3-butylene glycol crotonaldehyde glyoxal history properties of acetaldehyde manufacturing process production regulations new emission standards from epa 4.</t>
+  </si>
+  <si>
+    <t>sodium bisulfite, nahso 3 , can be prepared by reacting sulfur dioxide gas, so 2 , in a solution containing alkaline hydroxide, e.g.</t>
+  </si>
+  <si>
+    <t>in a process for the production of neopentyl glycol which consists of: a. the aldol condensation of isobutyraldehyde with formaldehyde in the presence of a basic aldol catalyst to produce hydroxypivaldehyde; b. separation of the hydroxypivaldehyde containing stream from the effluent of the aldol reactor by decantation; and c. the subsequent hydrogenation of the hydroxypivaldehyde in the presence of a raney nickel catalyst slurry, the improvement which comprises the following steps: 1.</t>
+  </si>
+  <si>
+    <t>the main derivatives of acetaldehyde are the oxygenated solvent ethyl acetate, pentaerythritol (used in the production of synthetic resins for the paint industry) and pyridines.</t>
+  </si>
+  <si>
+    <t>15 tollens reaction of acetaldehyde with formaldehyde gives pentaerythritol.</t>
+  </si>
+  <si>
+    <t>thus, cooling the purge stream can be advantageous to both filtering out undesirable particulates and increasing sulfur dioxide concentration to improve sodium bisulfite production.</t>
+  </si>
+  <si>
+    <t>more specifically this invention relates to an improved process for removing sodium salts from .the' hydroxypivaldehyde formed as an intermediate in the preparation of neopentyl glycol.</t>
+  </si>
+  <si>
+    <t>making pentaerythritol in a few step reaction for common precursor is not easy, it need both acetaldehyde and formaldehyde.</t>
+  </si>
+  <si>
+    <t>using this pilot apparatus, the recirculating sodium sulfite purge solution was treated with sulfur dioxide to convert the sodium sulfite to sodium bisulfite.</t>
+  </si>
+  <si>
+    <t>it is an object of the present invention to provide a process for producing neopentyl glycol by hydrogenating hydroxypivaldehyde with a high conversion and high selectivity.</t>
+  </si>
+  <si>
+    <t>our industrial compressors are compatible with a wide variety of hazardous, volatile, toxic, and corrosive gases such as chlorine , vinyl chloride, methyl chloride , sulfur dioxide, butadiene, hydrogen , helium and many more.</t>
+  </si>
+  <si>
+    <t>sulfite containing ingredients to look for on food labels include: sulfur dioxide potassium bisulfite potassium metabisulfite sodium bisulfite sodium metabisulfite sodium sulfite sulfites have been implicated as a cause of asthma symptoms that may range from mild wheezing to potentially life-threatening asthmatic reaction.</t>
+  </si>
+  <si>
+    <t>in the examples and comparative examples, hydroxypivaldehyde, neopentyl glycol, isobutyraldehyde, triethylamine and hydroxypivalic acid neopentyl glycol ester are abbreviated to hpa, npg, iba, tea, and hpne, respectively.</t>
+  </si>
+  <si>
+    <t>[6] preparation methanethiol is prepared commercially by the reaction of methanol with hydrogen sulfide gas over an acidic solid catalyst, such as alumina : [7] ch 3 oh + h 2 s ??? ch 3 sh + h 2 o although impractical, it can be prepared by the reaction of methyl iodide with thiourea .</t>
+  </si>
+  <si>
+    <t>in practice, a solution of hydroxypivaldehyde in water and neopentyl glycol as the solvents can be used as a starting material.</t>
+  </si>
+  <si>
+    <t>by hydrogenating hydroxypivaldehyde which is obtained by the condensation of isobutyraldehyde and formaldehyde, through the use of a catalyst comprising copper, zinc and zirconium in the presence of the above solvents, neopentyl glycol is consistently industrially obtained at a high yield.</t>
+  </si>
+  <si>
+    <t>we found two distinct potential minima for methylamine (one of them is a transition structure) and methanethiol, and one for the methanol dimer.</t>
+  </si>
+  <si>
+    <t>pentaerythritol is synthesised from formaldehyde and acetaldehyde in liquid reaction phase with the aid of an alkaline catalyst.</t>
+  </si>
+  <si>
+    <t>description: the present invention relates to a process for separating triethanolamine (tea) continuously by distillation from a mixture of monoethanolamine, diethanolamine and triethanolamine together with ammonia, water and ethanolamine ethers obtained by reaction of ammonia with ethylene oxide in the liquid phase under superatmospheric pressure and at elevated temperature.</t>
+  </si>
+  <si>
+    <t>on the other hand, a concentration higher than the upper limit of the above range causes tischenko reaction to take place between the hydroxypivaldehydes themselves resulting in the by-product of neopentyl glycol ester of hydroxypivaldehyde, which is not advantageous for industrial use.</t>
+  </si>
+  <si>
+    <t>in the present article we report a study of the methanol (ch 3 oh), methylamine (ch 3 nh 2 ) and methanethiol (ch 3 sh) dimers using b3lyp density functional theory and mp2 ab initio methods with various basis sets.</t>
+  </si>
+  <si>
+    <t>the method according to the invention can be carried out as follows: firstly, for example in accordance with gb-a-760 215 or ep-a-673 920, an ethanolamine mixture, comprising the main components monoethanolamine (mea), diethanolamion [sic] (dea) and triethanolamine (tea), is prepared by reacting aqueous ammonia with ethylene oxide in the liquid phase under superatmospheric pressure and elevated temperature in a reactor provided with cooling.</t>
+  </si>
+  <si>
+    <t>field of the invention the present invention relates to a process for producing neopentyl glycol by hydrogenating hydroxypivaldehyde.</t>
+  </si>
+  <si>
+    <t>the process according to claim 1, wherein the cyclization of n-phthaloyl l-glutamine to thalidomide is carried out in aprotic or chlorinated solvents.</t>
+  </si>
+  <si>
+    <t>a method of purifying triethanolamine prepared by reacting aqueous ammonia with ethylene oxide in the liquid phase under pressure and at elevated temperature, which comprises removing excess ammonia, water and monoethanolamine from the reaction product, reacting the resulting crude product with ethylene oxide at temperatures of from 110 to 180?? c., and then rectifying the mixture in the presence of phosphorous or hypophosphorous acid or compounds thereof.</t>
+  </si>
+  <si>
+    <t>it comprises of an integrated organic chemical complex that has a distillery to manufacture industrial alcohol from molasses, which is then used to manufacture several products such as pentaerythritol, di-pentaerythritol, formaldehyde, hexamine, acetaldehyde, sodium formate liquid carbon dioxide, ethyl acetate and bio-organic manure.</t>
+  </si>
+  <si>
+    <t>it is an object of the present invention to find an alternative, economic process for the preparation of pure, colorless (apha color number less than or equal to 10) and color-stable triethanolamine (tea) from aqueous ammonia and ethylene oxide.</t>
+  </si>
+  <si>
+    <t>commonly, sodium bisulfite is made by reacting sulfur dioxide gas, so 2 , in a solution containing sodium hydroxide, naoh, or sodium carbonate, na 2 co 3 .</t>
+  </si>
+  <si>
+    <t>as mentioned above, in the process for producing neopentyl glycol by hydrogenating hydroxypivaldehyde, a variety of catalysts have been proposed.</t>
+  </si>
+  <si>
+    <t>the caustic soda reacts with the dissolved sulfur dioxide, which is preferably about 0.3 wt %, coming in with the crystallizer feed to produce sodium bisulfite.</t>
+  </si>
+  <si>
+    <t>in accordance with another process, hydroxypivaldehyde as obtained by the reaction of isobutyraldehyde and formaldehyde is hydrogenated in the presence of a catalyst to thereby produce the objective neopentyl glycol, which process is not accompanied with sodium formate as the by-product.</t>
+  </si>
+  <si>
+    <t>this process involves reacting pthaloylating agent (claims phthalic anhydride and n-carbethoxy pthalimide)with l-glutamine to give n-phthaloyl glutamine and direct conversion of n-phthaloyl glutamine to thalidomide by addition of condensing agent (claims specifically carbonyl-diimidazole and thionyl chloride).</t>
+  </si>
+  <si>
+    <t>this scheme, therefore, is believed to increase the yield per pass by about 10 to 15% over a scheme feeding the crystallizer only a near-saturated sodium bisulfite solution without dissolved sulfur dioxide.</t>
+  </si>
+  <si>
+    <t>according to the process for producing neopentyl glycol by hydrogenating hydroxypivaldehyde, a sufficient catalytic activity and selectivity are exhibited, and a stable and long-term service life of the catalyst is realized, thereby rendering the present invention highly significant for an industrial use.</t>
+  </si>
+  <si>
+    <t>example 2: preparation of thalidomide: (using cdt as cyclising reagent) to a dry three necked flask added ethylacetate (30 ml) and n-phthaloyl-l-glutamine (5 g, 18.1 mmole).</t>
+  </si>
+  <si>
+    <t>hurst, describes a method of preparing potable water by mixing into semi-finished water an aqueous solution of hypochlorous acid having a ph of between about 3 and about 6 in amounts which provide the water with a free chlorine residual of at least about 0.5 ppm.</t>
+  </si>
+  <si>
+    <t>further, in water treatment plants which introduce chlorine gas into a stream of water to provide adequate mixing prior to addition to the body of impotable water, the hypochlorous acid solution may also be fed to this carrier stream.</t>
+  </si>
+  <si>
+    <t>amides prepared from dea are often also hydrophilic.the reaction of ethylene oxide with aqueous ammonia first produces ethanolamine which reacts with a second and third equivalent of ethylene oxide to give dea and triethanolamine.</t>
+  </si>
+  <si>
+    <t>this resultant feed liquor is introduced through line 38 into an absorber 14 where sulfur dioxide is introduced and forms a reaction liquor containing sodium bisulfite close to saturation and dissolved sulfur dioxide.</t>
+  </si>
+  <si>
+    <t>limited availability of raw materials such as formaldehyde and acetaldehyde due to overlapping with their other commercial applications is expected to inhibit the growth for pentaerythritol market.</t>
+  </si>
+  <si>
+    <t>sodium bisulfite works by releasing sulfur dioxide gas, which inhibits bacterial and fungal growth and prevents the discoloration and deterioration caused by common chemical reactions.</t>
+  </si>
+  <si>
+    <t>in accordance with the process of the present invention, in production of neopentyl glycol through hydrogenation of hydroxypivaldehyde, sufficiently high catalytic activity and selectivity are exhibited, and a long and stabilized service life of the catalyst can be realized.</t>
+  </si>
+  <si>
+    <t>[0008] the preparation of thalidomide by cyclization of n-phthaloyl-glutamine ( vi ) with acetic anhydride [king, f.e.</t>
+  </si>
+  <si>
+    <t>application of these two methods, together with the active (cyanomethyl) ester method, to both n 2 -phthaloyl-l-isoglutamine and n 2 -phthaloyl-l-glutamine showed that l-thalidomide is formed more readily and with less risk of racemization from the isoglutamine derivative.</t>
+  </si>
+  <si>
+    <t>the sodium bisulfite releases sulfur dioxide gas in the presence of water, killing bacteria, yeast and fungi in the wine.</t>
+  </si>
+  <si>
+    <t>the thalidomide isomers were obtained in high yields by treating the optical isomers of n 2 -phthaloylisoglutamine at 0?? with thionyl chloride in dimethylformamide.</t>
+  </si>
+  <si>
+    <t>sodium bisulfite can be prepared by bubbling sulfur dioxide in a solution of sodium carbonate in water.</t>
+  </si>
+  <si>
+    <t>the present invention relates to a process for producing neopentyl glycol which comprises hydrogenating hydroxypivaldehyde in the presence of a pt-ru-w catalyst.</t>
+  </si>
+  <si>
+    <t>in accordance with another method, hydroxypivaldehyde, as obtained by the reaction of isobutyraldehyde and formaldehyde, is hydrogenated in the presence of a catalyst to thereby produce the desired neopentyl glycol, which is not accompanied by the production of sodium formate.</t>
+  </si>
+  <si>
+    <t>on the other hand, if it is more than 80% by weight, tishchenko reaction between the hydroxypivaldehydes themselves occurs, resulting in neopentyl glycol ester of hydroxypivalic acid as by-product, which is unsuitable for practical use.</t>
+  </si>
+  <si>
+    <t>summary of the invention as a result of investigations to overcome the above problems encountered in production of neopentyl glycol through hydrogenation of hydroxypivaldehyde, it has been found that a three-component pt-ru-w catalyst exhibits excellent performance in the hydrogenation reaction.</t>
+  </si>
+  <si>
+    <t>for hydrogenation reaction of hydroxypivaldehyde according to the process of the present invention, the pt-ru-w catalyst is dispersed or suspended in the aqueous solution containing hydroxypivaldehyde as the starting material in the presence of hydrogen, or the aqueous solution containing the starting material is passed through a column packed with the catalyst in the presence of hydrogen to produce neopentyl glycol.</t>
+  </si>
+  <si>
+    <t>if the hydroxypivaldehyde concentration is less than 10% by weight, it is difficult to separate neopentyl glycol formed from water, and the energy load for evaporation to dehydration increases.</t>
+  </si>
+  <si>
+    <t>a process for producing neopentyl glycol which comprises hydrogenating hydroxypivaldehyde in the presence of a catalyst comprising copper, zinc and zirconium.</t>
+  </si>
+  <si>
+    <t>summary of the invention as a result of intensive research and investigation made by the present inventors to solve the above-mentioned problems in the process for producing neopentyl glycol by hydrogenating hydroxypivaldehyde, it has been found that a catalyst comprising copper, zinc and zirconium completely different from the previously known catalysts has an extremely excellent performance.</t>
+  </si>
+  <si>
+    <t>june 12, 1990 process for producing neopentyl glycol abstract a process for production of neopentyl glycol by hydrogenation of hydroxypivaldehyde in the presence of a pt-ru-w catalyst.</t>
+  </si>
+  <si>
+    <t>a process for producing neopentyl glycol which comprises hydrogenating hydroxypivaldehyde or the dimer thereof having the formula ##str2## at a temperature of 60.degree.</t>
+  </si>
+  <si>
+    <t>applications isobutyraldehyde is used as an intermediate in the preparation of isobutanol, methacrolein, hydroxypivaldehyde and neopentyl glycol.</t>
+  </si>
+  <si>
+    <t>the present invention relates to a process for producing neopentyl glycol which comprises hydrogenating hydroxypivaldehyde in the presence of a catalyst comprising copper, zinc and zirconium in the presence of at least one organic solvent selected from the group consisting of alcohols, ethers and hydrocarbons at a temperature of 60.degree.</t>
+  </si>
+  <si>
+    <t>[0007] as mentioned above, in the process for producing neopentyl glycol by hydrogenating hydroxypivaldehyde, a variety of catalysts have been proposed.</t>
+  </si>
+  <si>
+    <t>new production method: hydrogenation production of neopentyl glycol, by a process wherein isobutyraldehyde and formaldehyde are condensed in the presence of an alkali catalyst to produce hydroxypivaldehyde which is subsequently hydrogenated to produce neopentyl glycol.</t>
+  </si>
+  <si>
+    <t>this creates the intermediate hydroxypivaldehyde, which can be converted to neopentyl glycol with either excess formaldehyde or catalytic hydrogenation of the????aldehyde????group to an????alcohol????group.</t>
+  </si>
+  <si>
+    <t>[0015] this invention is particularly useful for making neopentyl glycol from hydroxypivaldehyde in 100% selectivity as this aldehyde does not decompose under hydrogenation conditions of this invention.</t>
+  </si>
+  <si>
+    <t>the conversion of hydroxypivaldehyde was 100 % providing 100% selectivity of neopentyl glycol, the desired alcohol product.</t>
+  </si>
+  <si>
+    <t>[5] hydroxypivalic acid neopentyl glycol ester is produced by a tishchenko reaction from hydroxypivaldehyde in the presence of a basic catalyst (e.g., aluminium oxide ).</t>
   </si>
 </sst>
 </file>
@@ -2921,10 +4631,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB296"/>
+  <dimension ref="A1:AS423"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A244" workbookViewId="0">
-      <selection activeCell="B244" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A349" workbookViewId="0">
+      <selection activeCell="C349" sqref="C1:AS1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2942,7 +4652,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -4595,7 +6305,7 @@
         <v>516</v>
       </c>
       <c r="E145" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
@@ -5611,7 +7321,7 @@
         <v>33</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C236" t="s">
         <v>612</v>
@@ -5768,7 +7478,7 @@
         <v>316</v>
       </c>
       <c r="C250" t="s">
-        <v>626</v>
+        <v>850</v>
       </c>
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.25">
@@ -5779,10 +7489,10 @@
         <v>301</v>
       </c>
       <c r="C251" t="s">
+        <v>626</v>
+      </c>
+      <c r="D251" t="s">
         <v>627</v>
-      </c>
-      <c r="D251" t="s">
-        <v>628</v>
       </c>
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.25">
@@ -5793,22 +7503,22 @@
         <v>38</v>
       </c>
       <c r="C252" t="s">
+        <v>628</v>
+      </c>
+      <c r="D252" t="s">
         <v>629</v>
       </c>
-      <c r="D252" t="s">
+      <c r="E252" t="s">
         <v>630</v>
       </c>
-      <c r="E252" t="s">
+      <c r="F252" t="s">
         <v>631</v>
       </c>
-      <c r="F252" t="s">
+      <c r="G252" t="s">
         <v>632</v>
       </c>
-      <c r="G252" t="s">
+      <c r="H252" t="s">
         <v>633</v>
-      </c>
-      <c r="H252" t="s">
-        <v>634</v>
       </c>
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.25">
@@ -5819,10 +7529,10 @@
         <v>97</v>
       </c>
       <c r="C253" t="s">
+        <v>634</v>
+      </c>
+      <c r="D253" t="s">
         <v>635</v>
-      </c>
-      <c r="D253" t="s">
-        <v>636</v>
       </c>
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.25">
@@ -5833,10 +7543,10 @@
         <v>333</v>
       </c>
       <c r="C254" t="s">
+        <v>636</v>
+      </c>
+      <c r="D254" t="s">
         <v>637</v>
-      </c>
-      <c r="D254" t="s">
-        <v>638</v>
       </c>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.25">
@@ -5847,7 +7557,7 @@
         <v>335</v>
       </c>
       <c r="C255" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.25">
@@ -5858,10 +7568,10 @@
         <v>186</v>
       </c>
       <c r="C256" t="s">
+        <v>639</v>
+      </c>
+      <c r="D256" t="s">
         <v>640</v>
-      </c>
-      <c r="D256" t="s">
-        <v>641</v>
       </c>
     </row>
     <row r="257" spans="1:13" x14ac:dyDescent="0.25">
@@ -5872,7 +7582,7 @@
         <v>338</v>
       </c>
       <c r="C257" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="258" spans="1:13" x14ac:dyDescent="0.25">
@@ -5883,13 +7593,13 @@
         <v>9</v>
       </c>
       <c r="C258" t="s">
+        <v>642</v>
+      </c>
+      <c r="D258" t="s">
         <v>643</v>
       </c>
-      <c r="D258" t="s">
+      <c r="E258" t="s">
         <v>644</v>
-      </c>
-      <c r="E258" t="s">
-        <v>645</v>
       </c>
     </row>
     <row r="259" spans="1:13" x14ac:dyDescent="0.25">
@@ -5900,10 +7610,10 @@
         <v>341</v>
       </c>
       <c r="C259" t="s">
+        <v>645</v>
+      </c>
+      <c r="D259" t="s">
         <v>646</v>
-      </c>
-      <c r="D259" t="s">
-        <v>647</v>
       </c>
     </row>
     <row r="260" spans="1:13" x14ac:dyDescent="0.25">
@@ -5914,21 +7624,21 @@
         <v>52</v>
       </c>
       <c r="C260" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="261" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A261" s="2" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B261" s="2" t="s">
         <v>342</v>
       </c>
       <c r="C261" t="s">
+        <v>647</v>
+      </c>
+      <c r="D261" t="s">
         <v>648</v>
-      </c>
-      <c r="D261" t="s">
-        <v>649</v>
       </c>
     </row>
     <row r="262" spans="1:13" x14ac:dyDescent="0.25">
@@ -5939,16 +7649,16 @@
         <v>227</v>
       </c>
       <c r="C262" t="s">
+        <v>650</v>
+      </c>
+      <c r="D262" t="s">
         <v>651</v>
       </c>
-      <c r="D262" t="s">
+      <c r="E262" t="s">
         <v>652</v>
       </c>
-      <c r="E262" t="s">
+      <c r="F262" t="s">
         <v>653</v>
-      </c>
-      <c r="F262" t="s">
-        <v>654</v>
       </c>
     </row>
     <row r="263" spans="1:13" x14ac:dyDescent="0.25">
@@ -5967,7 +7677,7 @@
         <v>53</v>
       </c>
       <c r="C264" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="265" spans="1:13" x14ac:dyDescent="0.25">
@@ -5978,7 +7688,7 @@
         <v>116</v>
       </c>
       <c r="C265" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="266" spans="1:13" x14ac:dyDescent="0.25">
@@ -5989,7 +7699,7 @@
         <v>51</v>
       </c>
       <c r="C266" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="267" spans="1:13" x14ac:dyDescent="0.25">
@@ -6008,7 +7718,7 @@
         <v>139</v>
       </c>
       <c r="C268" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="269" spans="1:13" x14ac:dyDescent="0.25">
@@ -6019,7 +7729,7 @@
         <v>349</v>
       </c>
       <c r="C269" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="270" spans="1:13" x14ac:dyDescent="0.25">
@@ -6030,86 +7740,86 @@
         <v>3</v>
       </c>
       <c r="C270" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D270" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="271" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
+        <v>719</v>
+      </c>
+      <c r="B271" t="s">
         <v>720</v>
-      </c>
-      <c r="B271" t="s">
-        <v>721</v>
       </c>
       <c r="C271"/>
     </row>
     <row r="272" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
+        <v>664</v>
+      </c>
+      <c r="B272" t="s">
         <v>665</v>
       </c>
-      <c r="B272" t="s">
+      <c r="C272" t="s">
         <v>666</v>
       </c>
-      <c r="C272" t="s">
+      <c r="D272" t="s">
         <v>667</v>
       </c>
-      <c r="D272" t="s">
+      <c r="E272" t="s">
         <v>668</v>
       </c>
-      <c r="E272" t="s">
+      <c r="F272" t="s">
         <v>669</v>
       </c>
-      <c r="F272" t="s">
+      <c r="G272" t="s">
         <v>670</v>
       </c>
-      <c r="G272" t="s">
+      <c r="H272" t="s">
         <v>671</v>
       </c>
-      <c r="H272" t="s">
-        <v>672</v>
-      </c>
       <c r="I272" t="s">
+        <v>683</v>
+      </c>
+      <c r="J272" t="s">
+        <v>666</v>
+      </c>
+      <c r="K272" t="s">
         <v>684</v>
       </c>
-      <c r="J272" t="s">
+      <c r="L272" t="s">
         <v>667</v>
       </c>
-      <c r="K272" t="s">
+      <c r="M272" t="s">
         <v>685</v>
-      </c>
-      <c r="L272" t="s">
-        <v>668</v>
-      </c>
-      <c r="M272" t="s">
-        <v>686</v>
       </c>
     </row>
     <row r="273" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B273" t="s">
         <v>5</v>
       </c>
       <c r="C273" t="s">
+        <v>673</v>
+      </c>
+      <c r="D273" t="s">
         <v>674</v>
       </c>
-      <c r="D273" t="s">
+      <c r="E273" t="s">
         <v>675</v>
       </c>
-      <c r="E273" t="s">
+      <c r="F273" t="s">
         <v>676</v>
       </c>
-      <c r="F273" t="s">
+      <c r="G273" t="s">
         <v>677</v>
       </c>
-      <c r="G273" t="s">
+      <c r="H273" t="s">
         <v>678</v>
-      </c>
-      <c r="H273" t="s">
-        <v>679</v>
       </c>
     </row>
     <row r="274" spans="1:25" x14ac:dyDescent="0.25">
@@ -6120,67 +7830,67 @@
         <v>5</v>
       </c>
       <c r="C274" t="s">
+        <v>679</v>
+      </c>
+      <c r="D274" t="s">
         <v>680</v>
       </c>
-      <c r="D274" t="s">
+      <c r="E274" t="s">
         <v>681</v>
       </c>
-      <c r="E274" t="s">
-        <v>682</v>
-      </c>
       <c r="F274" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="G274" t="s">
+        <v>686</v>
+      </c>
+      <c r="H274" t="s">
         <v>687</v>
       </c>
-      <c r="H274" t="s">
+      <c r="I274" t="s">
         <v>688</v>
       </c>
-      <c r="I274" t="s">
+      <c r="J274" t="s">
         <v>689</v>
       </c>
-      <c r="J274" t="s">
+      <c r="K274" t="s">
+        <v>675</v>
+      </c>
+      <c r="L274" t="s">
         <v>690</v>
       </c>
-      <c r="K274" t="s">
-        <v>676</v>
-      </c>
-      <c r="L274" t="s">
+      <c r="M274" t="s">
         <v>691</v>
       </c>
-      <c r="M274" t="s">
+      <c r="N274" t="s">
         <v>692</v>
       </c>
-      <c r="N274" t="s">
+      <c r="O274" t="s">
         <v>693</v>
       </c>
-      <c r="O274" t="s">
+      <c r="P274" t="s">
         <v>694</v>
       </c>
-      <c r="P274" t="s">
+      <c r="Q274" t="s">
         <v>695</v>
       </c>
-      <c r="Q274" t="s">
+      <c r="R274" t="s">
         <v>696</v>
       </c>
-      <c r="R274" t="s">
+      <c r="S274" t="s">
         <v>697</v>
       </c>
-      <c r="S274" t="s">
+      <c r="T274" t="s">
         <v>698</v>
       </c>
-      <c r="T274" t="s">
+      <c r="U274" t="s">
         <v>699</v>
       </c>
-      <c r="U274" t="s">
+      <c r="V274" t="s">
         <v>700</v>
       </c>
-      <c r="V274" t="s">
+      <c r="W274" t="s">
         <v>701</v>
-      </c>
-      <c r="W274" t="s">
-        <v>702</v>
       </c>
     </row>
     <row r="275" spans="1:25" x14ac:dyDescent="0.25">
@@ -6191,30 +7901,30 @@
         <v>7</v>
       </c>
       <c r="C275" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="276" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B276" t="s">
         <v>5</v>
       </c>
       <c r="C276" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="D276" t="s">
+        <v>702</v>
+      </c>
+      <c r="E276" t="s">
         <v>703</v>
       </c>
-      <c r="E276" t="s">
+      <c r="F276" t="s">
         <v>704</v>
       </c>
-      <c r="F276" t="s">
+      <c r="G276" t="s">
         <v>705</v>
-      </c>
-      <c r="G276" t="s">
-        <v>706</v>
       </c>
     </row>
     <row r="277" spans="1:25" x14ac:dyDescent="0.25">
@@ -6225,16 +7935,16 @@
         <v>9</v>
       </c>
       <c r="C277" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="D277" t="s">
+        <v>706</v>
+      </c>
+      <c r="E277" t="s">
         <v>707</v>
       </c>
-      <c r="E277" t="s">
+      <c r="F277" t="s">
         <v>708</v>
-      </c>
-      <c r="F277" t="s">
-        <v>709</v>
       </c>
     </row>
     <row r="278" spans="1:25" x14ac:dyDescent="0.25">
@@ -6245,16 +7955,16 @@
         <v>11</v>
       </c>
       <c r="C278" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="D278" t="s">
+        <v>709</v>
+      </c>
+      <c r="E278" t="s">
         <v>710</v>
       </c>
-      <c r="E278" t="s">
+      <c r="F278" t="s">
         <v>711</v>
-      </c>
-      <c r="F278" t="s">
-        <v>712</v>
       </c>
       <c r="G278" t="s">
         <v>354</v>
@@ -6271,61 +7981,61 @@
         <v>13</v>
       </c>
       <c r="C279" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="280" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
+        <v>727</v>
+      </c>
+      <c r="B280" t="s">
         <v>728</v>
       </c>
-      <c r="B280" t="s">
+      <c r="C280" t="s">
         <v>729</v>
       </c>
-      <c r="C280" t="s">
-        <v>730</v>
-      </c>
       <c r="D280" t="s">
+        <v>712</v>
+      </c>
+      <c r="E280" t="s">
         <v>713</v>
       </c>
-      <c r="E280" t="s">
+      <c r="F280" t="s">
         <v>714</v>
       </c>
-      <c r="F280" t="s">
+      <c r="G280" t="s">
         <v>715</v>
       </c>
-      <c r="G280" t="s">
+      <c r="H280" t="s">
         <v>716</v>
       </c>
-      <c r="H280" t="s">
+      <c r="I280" t="s">
         <v>717</v>
       </c>
-      <c r="I280" t="s">
+      <c r="J280" t="s">
         <v>718</v>
-      </c>
-      <c r="J280" t="s">
-        <v>719</v>
       </c>
     </row>
     <row r="281" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A281" s="3" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B281" s="3" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="C281" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="282" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A282" s="3" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B282" s="3" t="s">
         <v>53</v>
       </c>
       <c r="C282" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="283" spans="1:25" x14ac:dyDescent="0.25">
@@ -6336,31 +8046,31 @@
         <v>17</v>
       </c>
       <c r="C283" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="D283" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="E283" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="F283" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="G283" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="H283" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="I283" t="s">
+        <v>846</v>
+      </c>
+      <c r="J283" t="s">
+        <v>808</v>
+      </c>
+      <c r="K283" t="s">
         <v>847</v>
-      </c>
-      <c r="J283" t="s">
-        <v>809</v>
-      </c>
-      <c r="K283" t="s">
-        <v>848</v>
       </c>
     </row>
     <row r="284" spans="1:25" x14ac:dyDescent="0.25">
@@ -6368,16 +8078,16 @@
         <v>235</v>
       </c>
       <c r="B284" s="3" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C284" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="D284" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="E284" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="285" spans="1:25" x14ac:dyDescent="0.25">
@@ -6388,10 +8098,10 @@
         <v>19</v>
       </c>
       <c r="C285" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="D285" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="286" spans="1:25" x14ac:dyDescent="0.25">
@@ -6402,73 +8112,73 @@
         <v>21</v>
       </c>
       <c r="C286" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="D286" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="E286" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="F286" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="G286" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="H286" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="I286" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="J286" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="K286" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="L286" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="M286" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="N286" t="s">
+        <v>826</v>
+      </c>
+      <c r="O286" t="s">
         <v>827</v>
       </c>
-      <c r="O286" t="s">
-        <v>828</v>
-      </c>
       <c r="P286" t="s">
+        <v>829</v>
+      </c>
+      <c r="Q286" t="s">
         <v>830</v>
       </c>
-      <c r="Q286" t="s">
-        <v>831</v>
-      </c>
       <c r="R286" t="s">
+        <v>833</v>
+      </c>
+      <c r="S286" t="s">
         <v>834</v>
       </c>
-      <c r="S286" t="s">
+      <c r="T286" t="s">
         <v>835</v>
       </c>
-      <c r="T286" t="s">
+      <c r="U286" t="s">
         <v>836</v>
       </c>
-      <c r="U286" t="s">
-        <v>837</v>
-      </c>
       <c r="V286" t="s">
+        <v>838</v>
+      </c>
+      <c r="W286" t="s">
         <v>839</v>
       </c>
-      <c r="W286" t="s">
+      <c r="X286" t="s">
         <v>840</v>
       </c>
-      <c r="X286" t="s">
-        <v>841</v>
-      </c>
       <c r="Y286" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="287" spans="1:25" x14ac:dyDescent="0.25">
@@ -6479,34 +8189,34 @@
         <v>95</v>
       </c>
       <c r="C287" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="D287" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="E287" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="F287" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="G287" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="H287" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="I287" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="J287" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="K287" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="L287" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="288" spans="1:25" x14ac:dyDescent="0.25">
@@ -6517,96 +8227,96 @@
         <v>23</v>
       </c>
       <c r="C288" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="D288" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="289" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A289" s="3" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B289" s="3" t="s">
         <v>165</v>
       </c>
       <c r="C289" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="D289" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="E289" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="F289" t="s">
+        <v>777</v>
+      </c>
+      <c r="G289" t="s">
         <v>778</v>
       </c>
-      <c r="G289" t="s">
-        <v>779</v>
-      </c>
       <c r="H289" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="I289" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="J289" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="K289" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="L289" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="M289" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="N289" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="O289" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="P289" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="Q289" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="R289" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="S289" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="T289" t="s">
+        <v>777</v>
+      </c>
+      <c r="U289" t="s">
+        <v>825</v>
+      </c>
+      <c r="V289" t="s">
         <v>778</v>
       </c>
-      <c r="U289" t="s">
-        <v>826</v>
-      </c>
-      <c r="V289" t="s">
-        <v>779</v>
-      </c>
       <c r="W289" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="X289" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="Y289" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="Z289" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="AA289" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="AB289" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="290" spans="1:28" x14ac:dyDescent="0.25">
@@ -6617,57 +8327,57 @@
         <v>13</v>
       </c>
       <c r="C290" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="D290" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="E290" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="F290" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="G290" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="H290" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="I290" t="s">
+        <v>783</v>
+      </c>
+      <c r="J290" t="s">
         <v>784</v>
       </c>
-      <c r="J290" t="s">
-        <v>785</v>
-      </c>
       <c r="K290" t="s">
+        <v>786</v>
+      </c>
+      <c r="L290" t="s">
         <v>787</v>
       </c>
-      <c r="L290" t="s">
-        <v>788</v>
-      </c>
       <c r="M290" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="N290" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="O290" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="P290" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="Q290" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="291" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A291" s="3" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B291" s="3" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="C291"/>
     </row>
@@ -6682,27 +8392,27 @@
         <v>365</v>
       </c>
       <c r="D292" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E292" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="F292" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="G292" t="s">
+        <v>848</v>
+      </c>
+      <c r="H292" t="s">
         <v>849</v>
-      </c>
-      <c r="H292" t="s">
-        <v>850</v>
       </c>
     </row>
     <row r="293" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A293" s="3" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B293" s="3" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="C293"/>
     </row>
@@ -6714,43 +8424,43 @@
         <v>19</v>
       </c>
       <c r="C294" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="D294" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="E294" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="F294" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="G294" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="H294" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="I294" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="J294" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="K294" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="L294" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="M294" t="s">
+        <v>841</v>
+      </c>
+      <c r="N294" t="s">
         <v>842</v>
       </c>
-      <c r="N294" t="s">
+      <c r="O294" t="s">
         <v>843</v>
-      </c>
-      <c r="O294" t="s">
-        <v>844</v>
       </c>
     </row>
     <row r="295" spans="1:28" x14ac:dyDescent="0.25">
@@ -6761,40 +8471,2523 @@
         <v>27</v>
       </c>
       <c r="C295" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="D295" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="E295" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F295" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="G295" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="296" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A296" s="3" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B296" s="3" t="s">
         <v>152</v>
       </c>
       <c r="C296" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="D296" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="E296" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="F296" t="s">
-        <v>814</v>
-      </c>
+        <v>813</v>
+      </c>
+    </row>
+    <row r="297" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A297" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B297" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C297" t="s">
+        <v>851</v>
+      </c>
+      <c r="D297" t="s">
+        <v>852</v>
+      </c>
+      <c r="E297" t="s">
+        <v>853</v>
+      </c>
+      <c r="F297" t="s">
+        <v>854</v>
+      </c>
+      <c r="G297" t="s">
+        <v>855</v>
+      </c>
+      <c r="H297" t="s">
+        <v>856</v>
+      </c>
+      <c r="I297" t="s">
+        <v>858</v>
+      </c>
+      <c r="J297" t="s">
+        <v>857</v>
+      </c>
+      <c r="K297" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="298" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A298" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B298" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C298" t="s">
+        <v>860</v>
+      </c>
+      <c r="D298" t="s">
+        <v>861</v>
+      </c>
+      <c r="E298" t="s">
+        <v>862</v>
+      </c>
+      <c r="F298" t="s">
+        <v>863</v>
+      </c>
+      <c r="G298" t="s">
+        <v>864</v>
+      </c>
+      <c r="H298" t="s">
+        <v>865</v>
+      </c>
+      <c r="I298" t="s">
+        <v>866</v>
+      </c>
+      <c r="J298" t="s">
+        <v>867</v>
+      </c>
+      <c r="K298" t="s">
+        <v>868</v>
+      </c>
+      <c r="L298" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="299" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A299" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B299" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C299" t="s">
+        <v>870</v>
+      </c>
+      <c r="D299" t="s">
+        <v>871</v>
+      </c>
+      <c r="E299" t="s">
+        <v>872</v>
+      </c>
+      <c r="F299" t="s">
+        <v>873</v>
+      </c>
+      <c r="G299" t="s">
+        <v>874</v>
+      </c>
+      <c r="H299" t="s">
+        <v>875</v>
+      </c>
+      <c r="I299" t="s">
+        <v>876</v>
+      </c>
+      <c r="J299" t="s">
+        <v>877</v>
+      </c>
+      <c r="K299" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="300" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A300" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B300" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C300" t="s">
+        <v>879</v>
+      </c>
+      <c r="D300" t="s">
+        <v>880</v>
+      </c>
+      <c r="E300" t="s">
+        <v>881</v>
+      </c>
+      <c r="F300" t="s">
+        <v>882</v>
+      </c>
+      <c r="G300" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="301" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A301" s="3" t="s">
+        <v>884</v>
+      </c>
+      <c r="B301" s="3" t="s">
+        <v>885</v>
+      </c>
+      <c r="C301"/>
+    </row>
+    <row r="302" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A302" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B302" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C302"/>
+    </row>
+    <row r="303" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A303" s="3" t="s">
+        <v>886</v>
+      </c>
+      <c r="B303" s="3" t="s">
+        <v>739</v>
+      </c>
+      <c r="C303" t="s">
+        <v>887</v>
+      </c>
+      <c r="D303" t="s">
+        <v>888</v>
+      </c>
+      <c r="E303" t="s">
+        <v>889</v>
+      </c>
+      <c r="F303" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="304" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A304" s="3" t="s">
+        <v>891</v>
+      </c>
+      <c r="B304" s="3" t="s">
+        <v>892</v>
+      </c>
+      <c r="C304"/>
+    </row>
+    <row r="305" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A305" s="3" t="s">
+        <v>893</v>
+      </c>
+      <c r="B305" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="C305" t="s">
+        <v>894</v>
+      </c>
+      <c r="D305" t="s">
+        <v>895</v>
+      </c>
+      <c r="E305" t="s">
+        <v>896</v>
+      </c>
+      <c r="F305" t="s">
+        <v>897</v>
+      </c>
+      <c r="G305" t="s">
+        <v>901</v>
+      </c>
+      <c r="H305" t="s">
+        <v>898</v>
+      </c>
+      <c r="I305" t="s">
+        <v>899</v>
+      </c>
+      <c r="J305" t="s">
+        <v>900</v>
+      </c>
+      <c r="K305" t="s">
+        <v>901</v>
+      </c>
+      <c r="L305" t="s">
+        <v>903</v>
+      </c>
+      <c r="M305" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="306" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A306" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B306" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C306"/>
+    </row>
+    <row r="307" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A307" s="3" t="s">
+        <v>904</v>
+      </c>
+      <c r="B307" s="3" t="s">
+        <v>905</v>
+      </c>
+      <c r="C307"/>
+    </row>
+    <row r="308" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A308" s="3" t="s">
+        <v>906</v>
+      </c>
+      <c r="B308" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C308"/>
+    </row>
+    <row r="309" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A309" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B309" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C309"/>
+    </row>
+    <row r="310" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A310" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B310" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C310" t="s">
+        <v>907</v>
+      </c>
+      <c r="D310" t="s">
+        <v>908</v>
+      </c>
+      <c r="E310" t="s">
+        <v>909</v>
+      </c>
+      <c r="F310" t="s">
+        <v>910</v>
+      </c>
+      <c r="G310" t="s">
+        <v>911</v>
+      </c>
+      <c r="H310" t="s">
+        <v>912</v>
+      </c>
+      <c r="I310" t="s">
+        <v>913</v>
+      </c>
+      <c r="J310" t="s">
+        <v>914</v>
+      </c>
+      <c r="K310" t="s">
+        <v>915</v>
+      </c>
+      <c r="L310" t="s">
+        <v>916</v>
+      </c>
+      <c r="M310" t="s">
+        <v>917</v>
+      </c>
+      <c r="N310" t="s">
+        <v>918</v>
+      </c>
+      <c r="O310" t="s">
+        <v>919</v>
+      </c>
+      <c r="P310" t="s">
+        <v>920</v>
+      </c>
+      <c r="Q310" t="s">
+        <v>921</v>
+      </c>
+      <c r="R310" t="s">
+        <v>922</v>
+      </c>
+      <c r="S310" t="s">
+        <v>923</v>
+      </c>
+      <c r="T310" t="s">
+        <v>924</v>
+      </c>
+      <c r="U310" t="s">
+        <v>925</v>
+      </c>
+      <c r="V310" t="s">
+        <v>926</v>
+      </c>
+      <c r="W310" t="s">
+        <v>927</v>
+      </c>
+      <c r="X310" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="311" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A311" s="3" t="s">
+        <v>928</v>
+      </c>
+      <c r="B311" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="C311" t="s">
+        <v>929</v>
+      </c>
+      <c r="D311" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="312" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A312" s="3" t="s">
+        <v>931</v>
+      </c>
+      <c r="B312" s="3" t="s">
+        <v>932</v>
+      </c>
+      <c r="C312"/>
+    </row>
+    <row r="313" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A313" s="3" t="s">
+        <v>933</v>
+      </c>
+      <c r="B313" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="C313" t="s">
+        <v>942</v>
+      </c>
+      <c r="D313" t="s">
+        <v>934</v>
+      </c>
+      <c r="E313" t="s">
+        <v>935</v>
+      </c>
+      <c r="F313" t="s">
+        <v>936</v>
+      </c>
+      <c r="G313" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="314" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A314" s="3" t="s">
+        <v>938</v>
+      </c>
+      <c r="B314" s="3" t="s">
+        <v>939</v>
+      </c>
+      <c r="C314"/>
+    </row>
+    <row r="315" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A315" s="3" t="s">
+        <v>940</v>
+      </c>
+      <c r="B315" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C315"/>
+    </row>
+    <row r="316" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A316" s="3" t="s">
+        <v>941</v>
+      </c>
+      <c r="B316" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C316"/>
+    </row>
+    <row r="317" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A317" s="3" t="s">
+        <v>943</v>
+      </c>
+      <c r="B317" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C317" t="s">
+        <v>995</v>
+      </c>
+      <c r="D317" t="s">
+        <v>1111</v>
+      </c>
+      <c r="E317" t="s">
+        <v>1112</v>
+      </c>
+      <c r="F317" t="s">
+        <v>1113</v>
+      </c>
+      <c r="G317" t="s">
+        <v>1114</v>
+      </c>
+      <c r="H317" t="s">
+        <v>1115</v>
+      </c>
+      <c r="I317" t="s">
+        <v>1116</v>
+      </c>
+      <c r="J317" t="s">
+        <v>1117</v>
+      </c>
+      <c r="K317" t="s">
+        <v>1118</v>
+      </c>
+      <c r="L317" t="s">
+        <v>1119</v>
+      </c>
+      <c r="M317" t="s">
+        <v>1120</v>
+      </c>
+      <c r="N317" t="s">
+        <v>1121</v>
+      </c>
+      <c r="O317" t="s">
+        <v>1123</v>
+      </c>
+      <c r="P317" t="s">
+        <v>1129</v>
+      </c>
+      <c r="Q317" t="s">
+        <v>1131</v>
+      </c>
+      <c r="R317" t="s">
+        <v>1132</v>
+      </c>
+      <c r="S317" t="s">
+        <v>1133</v>
+      </c>
+      <c r="T317" t="s">
+        <v>1134</v>
+      </c>
+      <c r="U317" t="s">
+        <v>1135</v>
+      </c>
+      <c r="V317" t="s">
+        <v>1136</v>
+      </c>
+      <c r="W317" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="318" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A318" s="3" t="s">
+        <v>944</v>
+      </c>
+      <c r="B318" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C318" t="s">
+        <v>1098</v>
+      </c>
+      <c r="D318" t="s">
+        <v>1100</v>
+      </c>
+      <c r="E318" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="319" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A319" s="3" t="s">
+        <v>945</v>
+      </c>
+      <c r="B319" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C319"/>
+    </row>
+    <row r="320" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A320" s="3" t="s">
+        <v>946</v>
+      </c>
+      <c r="B320" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C320" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D320" t="s">
+        <v>1015</v>
+      </c>
+      <c r="E320" t="s">
+        <v>1020</v>
+      </c>
+      <c r="F320" t="s">
+        <v>1023</v>
+      </c>
+      <c r="G320" t="s">
+        <v>1038</v>
+      </c>
+      <c r="H320" t="s">
+        <v>1042</v>
+      </c>
+      <c r="I320" t="s">
+        <v>1058</v>
+      </c>
+      <c r="J320" t="s">
+        <v>1062</v>
+      </c>
+      <c r="K320" t="s">
+        <v>1064</v>
+      </c>
+      <c r="L320" t="s">
+        <v>1068</v>
+      </c>
+      <c r="M320" t="s">
+        <v>1072</v>
+      </c>
+      <c r="N320" t="s">
+        <v>1076</v>
+      </c>
+      <c r="O320" t="s">
+        <v>1080</v>
+      </c>
+      <c r="P320" t="s">
+        <v>1089</v>
+      </c>
+      <c r="Q320" t="s">
+        <v>1093</v>
+      </c>
+      <c r="R320" t="s">
+        <v>1103</v>
+      </c>
+      <c r="S320" t="s">
+        <v>1104</v>
+      </c>
+      <c r="T320" t="s">
+        <v>1106</v>
+      </c>
+      <c r="U320" t="s">
+        <v>1108</v>
+      </c>
+      <c r="V320" t="s">
+        <v>1109</v>
+      </c>
+      <c r="W320" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="321" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A321" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B321" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C321" t="s">
+        <v>972</v>
+      </c>
+      <c r="D321" t="s">
+        <v>1001</v>
+      </c>
+      <c r="E321" t="s">
+        <v>1015</v>
+      </c>
+      <c r="F321" t="s">
+        <v>1051</v>
+      </c>
+      <c r="G321" t="s">
+        <v>1054</v>
+      </c>
+      <c r="H321" t="s">
+        <v>1056</v>
+      </c>
+      <c r="I321" t="s">
+        <v>1059</v>
+      </c>
+      <c r="J321" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="322" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A322" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="B322" s="3" t="s">
+        <v>965</v>
+      </c>
+      <c r="C322" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="323" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A323" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B323" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C323" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="324" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A324" s="3" t="s">
+        <v>948</v>
+      </c>
+      <c r="B324" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C324" t="s">
+        <v>981</v>
+      </c>
+      <c r="D324" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="325" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A325" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B325" s="3" t="s">
+        <v>966</v>
+      </c>
+      <c r="C325" t="s">
+        <v>974</v>
+      </c>
+      <c r="D325" t="s">
+        <v>982</v>
+      </c>
+      <c r="E325" t="s">
+        <v>996</v>
+      </c>
+      <c r="F325" t="s">
+        <v>1002</v>
+      </c>
+      <c r="G325" t="s">
+        <v>1005</v>
+      </c>
+      <c r="H325" t="s">
+        <v>1016</v>
+      </c>
+      <c r="I325" t="s">
+        <v>1024</v>
+      </c>
+      <c r="J325" t="s">
+        <v>1028</v>
+      </c>
+      <c r="K325" t="s">
+        <v>1032</v>
+      </c>
+      <c r="L325" t="s">
+        <v>1034</v>
+      </c>
+      <c r="M325" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="326" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A326" s="3" t="s">
+        <v>949</v>
+      </c>
+      <c r="B326" s="3" t="s">
+        <v>967</v>
+      </c>
+      <c r="C326"/>
+    </row>
+    <row r="327" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A327" s="3" t="s">
+        <v>950</v>
+      </c>
+      <c r="B327" s="3" t="s">
+        <v>968</v>
+      </c>
+      <c r="C327"/>
+    </row>
+    <row r="328" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A328" s="3" t="s">
+        <v>951</v>
+      </c>
+      <c r="B328" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C328"/>
+    </row>
+    <row r="329" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A329" s="3" t="s">
+        <v>952</v>
+      </c>
+      <c r="B329" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C329"/>
+    </row>
+    <row r="330" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A330" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="B330" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C330" t="s">
+        <v>1048</v>
+      </c>
+      <c r="D330" t="s">
+        <v>1055</v>
+      </c>
+      <c r="E330" t="s">
+        <v>1065</v>
+      </c>
+      <c r="F330" t="s">
+        <v>1066</v>
+      </c>
+      <c r="G330" t="s">
+        <v>1069</v>
+      </c>
+      <c r="H330" t="s">
+        <v>1073</v>
+      </c>
+      <c r="I330" t="s">
+        <v>1077</v>
+      </c>
+      <c r="J330" t="s">
+        <v>1006</v>
+      </c>
+      <c r="K330" t="s">
+        <v>1084</v>
+      </c>
+      <c r="L330" t="s">
+        <v>1088</v>
+      </c>
+      <c r="M330" t="s">
+        <v>1091</v>
+      </c>
+      <c r="N330" t="s">
+        <v>1092</v>
+      </c>
+      <c r="O330" t="s">
+        <v>1094</v>
+      </c>
+      <c r="P330" t="s">
+        <v>1095</v>
+      </c>
+      <c r="Q330" t="s">
+        <v>1097</v>
+      </c>
+      <c r="R330" t="s">
+        <v>1099</v>
+      </c>
+      <c r="S330" t="s">
+        <v>1101</v>
+      </c>
+      <c r="T330" t="s">
+        <v>1105</v>
+      </c>
+      <c r="U330" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="331" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A331" s="3" t="s">
+        <v>953</v>
+      </c>
+      <c r="B331" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="C331" t="s">
+        <v>1017</v>
+      </c>
+      <c r="D331" t="s">
+        <v>1021</v>
+      </c>
+      <c r="E331" t="s">
+        <v>1025</v>
+      </c>
+      <c r="F331" t="s">
+        <v>1029</v>
+      </c>
+      <c r="G331" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="332" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A332" s="3" t="s">
+        <v>954</v>
+      </c>
+      <c r="B332" s="3" t="s">
+        <v>969</v>
+      </c>
+      <c r="C332"/>
+    </row>
+    <row r="333" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A333" s="3" t="s">
+        <v>955</v>
+      </c>
+      <c r="B333" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="C333" t="s">
+        <v>975</v>
+      </c>
+      <c r="D333" t="s">
+        <v>983</v>
+      </c>
+      <c r="E333" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="334" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A334" s="3" t="s">
+        <v>956</v>
+      </c>
+      <c r="B334" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C334"/>
+    </row>
+    <row r="335" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A335" s="3" t="s">
+        <v>957</v>
+      </c>
+      <c r="B335" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C335" t="s">
+        <v>991</v>
+      </c>
+      <c r="D335" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="336" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A336" s="3" t="s">
+        <v>958</v>
+      </c>
+      <c r="B336" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C336"/>
+    </row>
+    <row r="337" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A337" s="3" t="s">
+        <v>959</v>
+      </c>
+      <c r="B337" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C337" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="338" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A338" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B338" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C338"/>
+    </row>
+    <row r="339" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A339" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B339" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C339" t="s">
+        <v>985</v>
+      </c>
+      <c r="D339" t="s">
+        <v>997</v>
+      </c>
+      <c r="E339" t="s">
+        <v>1003</v>
+      </c>
+      <c r="F339" t="s">
+        <v>1008</v>
+      </c>
+      <c r="G339" t="s">
+        <v>1012</v>
+      </c>
+      <c r="H339" t="s">
+        <v>1003</v>
+      </c>
+      <c r="I339" t="s">
+        <v>1008</v>
+      </c>
+      <c r="J339" t="s">
+        <v>1026</v>
+      </c>
+      <c r="K339" t="s">
+        <v>1060</v>
+      </c>
+      <c r="L339" t="s">
+        <v>1078</v>
+      </c>
+      <c r="M339" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="340" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A340" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B340" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C340" t="s">
+        <v>998</v>
+      </c>
+      <c r="D340" t="s">
+        <v>1013</v>
+      </c>
+      <c r="E340" t="s">
+        <v>1040</v>
+      </c>
+      <c r="F340" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G340" t="s">
+        <v>1045</v>
+      </c>
+      <c r="H340" t="s">
+        <v>1049</v>
+      </c>
+      <c r="I340" t="s">
+        <v>1052</v>
+      </c>
+      <c r="J340" t="s">
+        <v>1057</v>
+      </c>
+      <c r="K340" t="s">
+        <v>1096</v>
+      </c>
+      <c r="L340" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="341" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A341" s="3" t="s">
+        <v>960</v>
+      </c>
+      <c r="B341" s="3" t="s">
+        <v>970</v>
+      </c>
+      <c r="C341" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="342" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A342" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B342" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C342" t="s">
+        <v>976</v>
+      </c>
+      <c r="D342" t="s">
+        <v>986</v>
+      </c>
+      <c r="E342" t="s">
+        <v>992</v>
+      </c>
+      <c r="F342" t="s">
+        <v>999</v>
+      </c>
+      <c r="G342" t="s">
+        <v>1004</v>
+      </c>
+      <c r="H342" t="s">
+        <v>1009</v>
+      </c>
+      <c r="I342" t="s">
+        <v>1014</v>
+      </c>
+      <c r="J342" t="s">
+        <v>1018</v>
+      </c>
+      <c r="K342" t="s">
+        <v>1022</v>
+      </c>
+      <c r="L342" t="s">
+        <v>1027</v>
+      </c>
+      <c r="M342" t="s">
+        <v>1030</v>
+      </c>
+      <c r="N342" t="s">
+        <v>1033</v>
+      </c>
+      <c r="O342" t="s">
+        <v>1067</v>
+      </c>
+      <c r="P342" t="s">
+        <v>1070</v>
+      </c>
+      <c r="Q342" t="s">
+        <v>1074</v>
+      </c>
+      <c r="R342" t="s">
+        <v>1081</v>
+      </c>
+      <c r="S342" t="s">
+        <v>1085</v>
+      </c>
+      <c r="T342" t="s">
+        <v>1087</v>
+      </c>
+      <c r="U342" t="s">
+        <v>1124</v>
+      </c>
+      <c r="V342" t="s">
+        <v>1126</v>
+      </c>
+      <c r="W342" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="343" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A343" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B343" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C343" t="s">
+        <v>977</v>
+      </c>
+      <c r="D343" t="s">
+        <v>993</v>
+      </c>
+      <c r="E343" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="344" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A344" s="3" t="s">
+        <v>961</v>
+      </c>
+      <c r="B344" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C344"/>
+    </row>
+    <row r="345" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A345" s="3" t="s">
+        <v>962</v>
+      </c>
+      <c r="B345" s="3" t="s">
+        <v>978</v>
+      </c>
+      <c r="C345" t="s">
+        <v>987</v>
+      </c>
+      <c r="D345" t="s">
+        <v>994</v>
+      </c>
+      <c r="E345" t="s">
+        <v>1044</v>
+      </c>
+      <c r="F345" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="346" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A346" s="3" t="s">
+        <v>963</v>
+      </c>
+      <c r="B346" s="3" t="s">
+        <v>971</v>
+      </c>
+      <c r="C346" t="s">
+        <v>979</v>
+      </c>
+      <c r="D346" t="s">
+        <v>988</v>
+      </c>
+      <c r="E346" t="s">
+        <v>1000</v>
+      </c>
+      <c r="F346" t="s">
+        <v>1010</v>
+      </c>
+      <c r="G346" t="s">
+        <v>1031</v>
+      </c>
+      <c r="H346" t="s">
+        <v>1037</v>
+      </c>
+      <c r="I346" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="347" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A347" s="3" t="s">
+        <v>964</v>
+      </c>
+      <c r="B347" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C347" t="s">
+        <v>989</v>
+      </c>
+      <c r="D347" t="s">
+        <v>1019</v>
+      </c>
+      <c r="E347" t="s">
+        <v>1046</v>
+      </c>
+      <c r="F347" t="s">
+        <v>1053</v>
+      </c>
+      <c r="G347" t="s">
+        <v>1061</v>
+      </c>
+      <c r="H347" t="s">
+        <v>1071</v>
+      </c>
+      <c r="I347" t="s">
+        <v>1075</v>
+      </c>
+      <c r="J347" t="s">
+        <v>1079</v>
+      </c>
+      <c r="K347" t="s">
+        <v>1082</v>
+      </c>
+      <c r="L347" t="s">
+        <v>1086</v>
+      </c>
+      <c r="M347" t="s">
+        <v>1122</v>
+      </c>
+      <c r="N347" t="s">
+        <v>1125</v>
+      </c>
+      <c r="O347" t="s">
+        <v>1128</v>
+      </c>
+      <c r="P347" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="348" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A348" t="s">
+        <v>62</v>
+      </c>
+      <c r="B348" t="s">
+        <v>63</v>
+      </c>
+      <c r="C348" t="s">
+        <v>1138</v>
+      </c>
+      <c r="D348" t="s">
+        <v>1139</v>
+      </c>
+      <c r="E348" t="s">
+        <v>1140</v>
+      </c>
+      <c r="F348" t="s">
+        <v>1141</v>
+      </c>
+      <c r="G348" t="s">
+        <v>1142</v>
+      </c>
+      <c r="H348" t="s">
+        <v>1143</v>
+      </c>
+      <c r="I348" t="s">
+        <v>1144</v>
+      </c>
+      <c r="J348" t="s">
+        <v>1145</v>
+      </c>
+      <c r="K348" t="s">
+        <v>1146</v>
+      </c>
+      <c r="L348" t="s">
+        <v>1147</v>
+      </c>
+      <c r="M348" t="s">
+        <v>1148</v>
+      </c>
+      <c r="N348" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="349" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A349" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B349" t="s">
+        <v>19</v>
+      </c>
+      <c r="C349" t="s">
+        <v>1151</v>
+      </c>
+      <c r="D349" t="s">
+        <v>1152</v>
+      </c>
+      <c r="E349" t="s">
+        <v>1153</v>
+      </c>
+      <c r="F349" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="350" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A350" t="s">
+        <v>5</v>
+      </c>
+      <c r="B350" t="s">
+        <v>31</v>
+      </c>
+      <c r="C350" t="s">
+        <v>1155</v>
+      </c>
+      <c r="D350" t="s">
+        <v>1156</v>
+      </c>
+      <c r="E350" t="s">
+        <v>1157</v>
+      </c>
+      <c r="F350" t="s">
+        <v>1158</v>
+      </c>
+      <c r="G350" t="s">
+        <v>1159</v>
+      </c>
+      <c r="H350" t="s">
+        <v>1160</v>
+      </c>
+      <c r="I350" t="s">
+        <v>1161</v>
+      </c>
+      <c r="J350" t="s">
+        <v>1162</v>
+      </c>
+      <c r="K350" t="s">
+        <v>1163</v>
+      </c>
+      <c r="L350" t="s">
+        <v>1164</v>
+      </c>
+      <c r="M350" t="s">
+        <v>1165</v>
+      </c>
+      <c r="N350" t="s">
+        <v>1166</v>
+      </c>
+      <c r="O350" t="s">
+        <v>1167</v>
+      </c>
+      <c r="P350" t="s">
+        <v>1168</v>
+      </c>
+      <c r="Q350" t="s">
+        <v>1169</v>
+      </c>
+      <c r="R350" t="s">
+        <v>1170</v>
+      </c>
+      <c r="S350" t="s">
+        <v>1171</v>
+      </c>
+      <c r="T350" t="s">
+        <v>1172</v>
+      </c>
+      <c r="U350" t="s">
+        <v>1173</v>
+      </c>
+      <c r="V350" t="s">
+        <v>1174</v>
+      </c>
+      <c r="W350" t="s">
+        <v>1175</v>
+      </c>
+      <c r="X350" t="s">
+        <v>1176</v>
+      </c>
+      <c r="Y350" t="s">
+        <v>1177</v>
+      </c>
+      <c r="Z350" t="s">
+        <v>1178</v>
+      </c>
+      <c r="AA350" t="s">
+        <v>1179</v>
+      </c>
+      <c r="AB350" t="s">
+        <v>1180</v>
+      </c>
+      <c r="AC350" t="s">
+        <v>1181</v>
+      </c>
+      <c r="AD350" t="s">
+        <v>1182</v>
+      </c>
+      <c r="AE350" t="s">
+        <v>1183</v>
+      </c>
+      <c r="AF350" t="s">
+        <v>1184</v>
+      </c>
+      <c r="AG350" t="s">
+        <v>1185</v>
+      </c>
+      <c r="AH350" t="s">
+        <v>1186</v>
+      </c>
+      <c r="AI350" t="s">
+        <v>1187</v>
+      </c>
+      <c r="AJ350" t="s">
+        <v>1188</v>
+      </c>
+      <c r="AK350" t="s">
+        <v>1189</v>
+      </c>
+      <c r="AL350" t="s">
+        <v>1190</v>
+      </c>
+      <c r="AM350" t="s">
+        <v>1191</v>
+      </c>
+      <c r="AN350" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="351" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A351" t="s">
+        <v>1193</v>
+      </c>
+      <c r="B351" t="s">
+        <v>260</v>
+      </c>
+      <c r="C351" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="352" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A352" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B352" t="s">
+        <v>139</v>
+      </c>
+      <c r="C352" t="s">
+        <v>1196</v>
+      </c>
+      <c r="D352" t="s">
+        <v>1197</v>
+      </c>
+      <c r="E352" t="s">
+        <v>1198</v>
+      </c>
+      <c r="F352" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="353" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A353" t="s">
+        <v>65</v>
+      </c>
+      <c r="B353" t="s">
+        <v>66</v>
+      </c>
+      <c r="C353" t="s">
+        <v>1199</v>
+      </c>
+      <c r="D353" t="s">
+        <v>1200</v>
+      </c>
+      <c r="E353" t="s">
+        <v>1201</v>
+      </c>
+      <c r="F353" t="s">
+        <v>1202</v>
+      </c>
+      <c r="G353" t="s">
+        <v>1203</v>
+      </c>
+      <c r="H353" t="s">
+        <v>1204</v>
+      </c>
+      <c r="I353" t="s">
+        <v>1205</v>
+      </c>
+      <c r="J353" t="s">
+        <v>1206</v>
+      </c>
+      <c r="K353" t="s">
+        <v>1207</v>
+      </c>
+      <c r="L353" t="s">
+        <v>1208</v>
+      </c>
+      <c r="M353" t="s">
+        <v>1209</v>
+      </c>
+      <c r="N353" t="s">
+        <v>1210</v>
+      </c>
+      <c r="O353" t="s">
+        <v>1207</v>
+      </c>
+      <c r="P353" t="s">
+        <v>1211</v>
+      </c>
+      <c r="Q353" t="s">
+        <v>1212</v>
+      </c>
+      <c r="R353" t="s">
+        <v>1200</v>
+      </c>
+      <c r="S353" t="s">
+        <v>1202</v>
+      </c>
+      <c r="T353" t="s">
+        <v>1213</v>
+      </c>
+      <c r="U353" t="s">
+        <v>1204</v>
+      </c>
+      <c r="V353" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="354" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A354" t="s">
+        <v>1215</v>
+      </c>
+      <c r="B354" t="s">
+        <v>8</v>
+      </c>
+      <c r="C354" t="s">
+        <v>1216</v>
+      </c>
+      <c r="D354" t="s">
+        <v>1217</v>
+      </c>
+      <c r="E354" t="s">
+        <v>1218</v>
+      </c>
+      <c r="F354" t="s">
+        <v>1219</v>
+      </c>
+      <c r="G354" t="s">
+        <v>1220</v>
+      </c>
+      <c r="H354" t="s">
+        <v>1221</v>
+      </c>
+      <c r="I354" t="s">
+        <v>1222</v>
+      </c>
+      <c r="J354" t="s">
+        <v>1223</v>
+      </c>
+      <c r="K354" t="s">
+        <v>1225</v>
+      </c>
+      <c r="L354" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="355" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A355" t="s">
+        <v>67</v>
+      </c>
+      <c r="B355" t="s">
+        <v>68</v>
+      </c>
+      <c r="C355" t="s">
+        <v>1226</v>
+      </c>
+      <c r="D355" t="s">
+        <v>1227</v>
+      </c>
+      <c r="E355" t="s">
+        <v>1228</v>
+      </c>
+      <c r="F355" t="s">
+        <v>1229</v>
+      </c>
+      <c r="G355" t="s">
+        <v>1230</v>
+      </c>
+      <c r="H355" t="s">
+        <v>1231</v>
+      </c>
+      <c r="I355" t="s">
+        <v>1232</v>
+      </c>
+      <c r="J355" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="356" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A356" t="s">
+        <v>1234</v>
+      </c>
+      <c r="B356" t="s">
+        <v>1235</v>
+      </c>
+      <c r="C356" t="s">
+        <v>1236</v>
+      </c>
+      <c r="D356" t="s">
+        <v>1237</v>
+      </c>
+      <c r="E356" t="s">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="357" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A357" t="s">
+        <v>79</v>
+      </c>
+      <c r="B357" t="s">
+        <v>80</v>
+      </c>
+      <c r="C357" t="s">
+        <v>1239</v>
+      </c>
+      <c r="D357" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="358" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A358" t="s">
+        <v>1241</v>
+      </c>
+      <c r="B358" t="s">
+        <v>665</v>
+      </c>
+      <c r="C358" t="s">
+        <v>1242</v>
+      </c>
+      <c r="D358" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="359" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A359" t="s">
+        <v>81</v>
+      </c>
+      <c r="B359" t="s">
+        <v>31</v>
+      </c>
+      <c r="C359" t="s">
+        <v>1244</v>
+      </c>
+      <c r="D359" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="360" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A360" t="s">
+        <v>83</v>
+      </c>
+      <c r="B360" t="s">
+        <v>84</v>
+      </c>
+      <c r="C360" t="s">
+        <v>1305</v>
+      </c>
+      <c r="D360" t="s">
+        <v>1246</v>
+      </c>
+      <c r="E360" t="s">
+        <v>1247</v>
+      </c>
+      <c r="F360" t="s">
+        <v>1248</v>
+      </c>
+      <c r="G360" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="361" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A361" t="s">
+        <v>85</v>
+      </c>
+      <c r="B361" t="s">
+        <v>86</v>
+      </c>
+      <c r="C361" t="s">
+        <v>1250</v>
+      </c>
+      <c r="D361" t="s">
+        <v>1251</v>
+      </c>
+      <c r="E361" t="s">
+        <v>1252</v>
+      </c>
+      <c r="F361" t="s">
+        <v>1253</v>
+      </c>
+      <c r="G361" t="s">
+        <v>1254</v>
+      </c>
+      <c r="H361" t="s">
+        <v>1255</v>
+      </c>
+      <c r="I361" t="s">
+        <v>1256</v>
+      </c>
+      <c r="J361" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="362" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A362" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B362" t="s">
+        <v>1259</v>
+      </c>
+      <c r="C362" t="s">
+        <v>1260</v>
+      </c>
+      <c r="D362" t="s">
+        <v>1261</v>
+      </c>
+      <c r="E362" t="s">
+        <v>1262</v>
+      </c>
+      <c r="F362" t="s">
+        <v>1263</v>
+      </c>
+      <c r="G362" t="s">
+        <v>1264</v>
+      </c>
+      <c r="H362" t="s">
+        <v>1265</v>
+      </c>
+      <c r="I362" t="s">
+        <v>1266</v>
+      </c>
+      <c r="J362" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="363" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A363" t="s">
+        <v>87</v>
+      </c>
+      <c r="B363" t="s">
+        <v>24</v>
+      </c>
+      <c r="C363" t="s">
+        <v>1268</v>
+      </c>
+      <c r="D363" t="s">
+        <v>1269</v>
+      </c>
+      <c r="E363" t="s">
+        <v>1270</v>
+      </c>
+      <c r="F363" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="364" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A364" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B364" t="s">
+        <v>139</v>
+      </c>
+      <c r="C364" t="s">
+        <v>1273</v>
+      </c>
+      <c r="D364" t="s">
+        <v>1274</v>
+      </c>
+      <c r="E364" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="365" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A365" t="s">
+        <v>1276</v>
+      </c>
+      <c r="B365" t="s">
+        <v>1277</v>
+      </c>
+      <c r="C365" t="s">
+        <v>1278</v>
+      </c>
+      <c r="D365" t="s">
+        <v>1279</v>
+      </c>
+      <c r="E365" t="s">
+        <v>1280</v>
+      </c>
+      <c r="F365" t="s">
+        <v>1281</v>
+      </c>
+      <c r="G365" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="366" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A366" t="s">
+        <v>94</v>
+      </c>
+      <c r="B366" t="s">
+        <v>95</v>
+      </c>
+      <c r="C366" t="s">
+        <v>1283</v>
+      </c>
+      <c r="D366" t="s">
+        <v>1284</v>
+      </c>
+      <c r="E366" t="s">
+        <v>1285</v>
+      </c>
+      <c r="F366" t="s">
+        <v>1286</v>
+      </c>
+      <c r="G366" t="s">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="367" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A367" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B367" t="s">
+        <v>1289</v>
+      </c>
+      <c r="C367" t="s">
+        <v>1290</v>
+      </c>
+      <c r="D367" t="s">
+        <v>1291</v>
+      </c>
+      <c r="E367" t="s">
+        <v>1292</v>
+      </c>
+      <c r="F367" t="s">
+        <v>1293</v>
+      </c>
+      <c r="G367" t="s">
+        <v>1294</v>
+      </c>
+      <c r="H367" t="s">
+        <v>1295</v>
+      </c>
+      <c r="I367" t="s">
+        <v>1296</v>
+      </c>
+      <c r="J367" t="s">
+        <v>1297</v>
+      </c>
+      <c r="K367" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="368" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A368" t="s">
+        <v>96</v>
+      </c>
+      <c r="B368" t="s">
+        <v>97</v>
+      </c>
+      <c r="C368" t="s">
+        <v>1299</v>
+      </c>
+      <c r="D368" t="s">
+        <v>1300</v>
+      </c>
+      <c r="E368" t="s">
+        <v>1301</v>
+      </c>
+      <c r="F368" t="s">
+        <v>1302</v>
+      </c>
+      <c r="G368" t="s">
+        <v>1303</v>
+      </c>
+      <c r="H368" t="s">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="369" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A369" t="s">
+        <v>1306</v>
+      </c>
+      <c r="B369" t="s">
+        <v>90</v>
+      </c>
+      <c r="C369" t="s">
+        <v>1308</v>
+      </c>
+      <c r="D369" t="s">
+        <v>1311</v>
+      </c>
+      <c r="E369" t="s">
+        <v>1315</v>
+      </c>
+      <c r="F369" t="s">
+        <v>1320</v>
+      </c>
+      <c r="G369" t="s">
+        <v>1325</v>
+      </c>
+      <c r="H369" t="s">
+        <v>1333</v>
+      </c>
+      <c r="I369" t="s">
+        <v>1336</v>
+      </c>
+      <c r="J369" t="s">
+        <v>1338</v>
+      </c>
+      <c r="K369" t="s">
+        <v>1344</v>
+      </c>
+      <c r="L369" t="s">
+        <v>1347</v>
+      </c>
+      <c r="M369" t="s">
+        <v>1352</v>
+      </c>
+      <c r="N369" t="s">
+        <v>1355</v>
+      </c>
+      <c r="O369" t="s">
+        <v>1379</v>
+      </c>
+      <c r="P369" t="s">
+        <v>1387</v>
+      </c>
+      <c r="Q369" t="s">
+        <v>1390</v>
+      </c>
+      <c r="R369" t="s">
+        <v>1398</v>
+      </c>
+      <c r="S369" t="s">
+        <v>1399</v>
+      </c>
+      <c r="T369" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="370" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A370" t="s">
+        <v>1307</v>
+      </c>
+      <c r="B370" t="s">
+        <v>97</v>
+      </c>
+      <c r="C370" t="s">
+        <v>1309</v>
+      </c>
+      <c r="D370" t="s">
+        <v>1326</v>
+      </c>
+      <c r="E370" t="s">
+        <v>1329</v>
+      </c>
+      <c r="F370" t="s">
+        <v>1331</v>
+      </c>
+      <c r="G370" t="s">
+        <v>1334</v>
+      </c>
+      <c r="H370" t="s">
+        <v>1341</v>
+      </c>
+      <c r="I370" t="s">
+        <v>1348</v>
+      </c>
+      <c r="J370" t="s">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="371" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A371" t="s">
+        <v>143</v>
+      </c>
+      <c r="B371" t="s">
+        <v>38</v>
+      </c>
+      <c r="C371" t="s">
+        <v>1310</v>
+      </c>
+      <c r="D371" t="s">
+        <v>1312</v>
+      </c>
+      <c r="E371" t="s">
+        <v>1316</v>
+      </c>
+      <c r="F371" t="s">
+        <v>1321</v>
+      </c>
+      <c r="G371" t="s">
+        <v>1335</v>
+      </c>
+      <c r="H371" t="s">
+        <v>1369</v>
+      </c>
+      <c r="I371" t="s">
+        <v>1372</v>
+      </c>
+      <c r="J371" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="372" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A372" t="s">
+        <v>144</v>
+      </c>
+      <c r="B372" t="s">
+        <v>9</v>
+      </c>
+      <c r="C372" t="s">
+        <v>724</v>
+      </c>
+      <c r="D372" t="s">
+        <v>1317</v>
+      </c>
+      <c r="E372" t="s">
+        <v>1322</v>
+      </c>
+      <c r="F372" t="s">
+        <v>1327</v>
+      </c>
+      <c r="G372" t="s">
+        <v>1342</v>
+      </c>
+      <c r="H372" t="s">
+        <v>1345</v>
+      </c>
+      <c r="I372" t="s">
+        <v>1349</v>
+      </c>
+      <c r="J372" t="s">
+        <v>1339</v>
+      </c>
+      <c r="K372" t="s">
+        <v>1356</v>
+      </c>
+      <c r="L372" t="s">
+        <v>1360</v>
+      </c>
+      <c r="M372" t="s">
+        <v>1363</v>
+      </c>
+      <c r="N372" t="s">
+        <v>1373</v>
+      </c>
+      <c r="O372" t="s">
+        <v>1381</v>
+      </c>
+      <c r="P372" t="s">
+        <v>1359</v>
+      </c>
+      <c r="Q372" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="373" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A373" t="s">
+        <v>145</v>
+      </c>
+      <c r="B373" t="s">
+        <v>97</v>
+      </c>
+      <c r="C373" t="s">
+        <v>1318</v>
+      </c>
+      <c r="D373" t="s">
+        <v>1323</v>
+      </c>
+      <c r="E373" t="s">
+        <v>1328</v>
+      </c>
+      <c r="F373" t="s">
+        <v>1391</v>
+      </c>
+      <c r="G373" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="374" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A374" t="s">
+        <v>146</v>
+      </c>
+      <c r="B374" t="s">
+        <v>33</v>
+      </c>
+      <c r="C374" t="s">
+        <v>1313</v>
+      </c>
+      <c r="D374" t="s">
+        <v>1319</v>
+      </c>
+      <c r="E374" t="s">
+        <v>1337</v>
+      </c>
+      <c r="F374" t="s">
+        <v>1340</v>
+      </c>
+      <c r="G374" t="s">
+        <v>1343</v>
+      </c>
+      <c r="H374" t="s">
+        <v>1340</v>
+      </c>
+      <c r="I374" t="s">
+        <v>1350</v>
+      </c>
+      <c r="J374" t="s">
+        <v>1353</v>
+      </c>
+      <c r="K374" t="s">
+        <v>1374</v>
+      </c>
+      <c r="L374" t="s">
+        <v>1377</v>
+      </c>
+      <c r="M374" t="s">
+        <v>1380</v>
+      </c>
+      <c r="N374" t="s">
+        <v>1382</v>
+      </c>
+      <c r="O374" t="s">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="375" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A375" t="s">
+        <v>147</v>
+      </c>
+      <c r="B375" t="s">
+        <v>148</v>
+      </c>
+      <c r="C375" t="s">
+        <v>1330</v>
+      </c>
+      <c r="D375" t="s">
+        <v>1332</v>
+      </c>
+      <c r="E375" t="s">
+        <v>1351</v>
+      </c>
+      <c r="F375" t="s">
+        <v>1357</v>
+      </c>
+      <c r="G375" t="s">
+        <v>1361</v>
+      </c>
+      <c r="H375" t="s">
+        <v>1364</v>
+      </c>
+      <c r="I375" t="s">
+        <v>1367</v>
+      </c>
+      <c r="J375" t="s">
+        <v>1383</v>
+      </c>
+      <c r="K375" t="s">
+        <v>1385</v>
+      </c>
+      <c r="L375" t="s">
+        <v>1388</v>
+      </c>
+      <c r="M375" t="s">
+        <v>1394</v>
+      </c>
+      <c r="N375" t="s">
+        <v>1396</v>
+      </c>
+      <c r="O375" t="s">
+        <v>1400</v>
+      </c>
+      <c r="P375" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="376" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A376" t="s">
+        <v>149</v>
+      </c>
+      <c r="B376" t="s">
+        <v>150</v>
+      </c>
+      <c r="C376" t="s">
+        <v>470</v>
+      </c>
+      <c r="D376" t="s">
+        <v>1314</v>
+      </c>
+      <c r="E376" t="s">
+        <v>1324</v>
+      </c>
+      <c r="F376" t="s">
+        <v>1346</v>
+      </c>
+      <c r="G376" t="s">
+        <v>1354</v>
+      </c>
+      <c r="H376" t="s">
+        <v>1358</v>
+      </c>
+      <c r="I376" t="s">
+        <v>1362</v>
+      </c>
+      <c r="J376" t="s">
+        <v>1365</v>
+      </c>
+      <c r="K376" t="s">
+        <v>1370</v>
+      </c>
+      <c r="L376" t="s">
+        <v>1365</v>
+      </c>
+      <c r="M376" t="s">
+        <v>1409</v>
+      </c>
+      <c r="N376" t="s">
+        <v>1410</v>
+      </c>
+      <c r="O376" t="s">
+        <v>1386</v>
+      </c>
+      <c r="P376" t="s">
+        <v>1389</v>
+      </c>
+      <c r="Q376" t="s">
+        <v>1397</v>
+      </c>
+      <c r="R376" t="s">
+        <v>1411</v>
+      </c>
+      <c r="S376" t="s">
+        <v>1403</v>
+      </c>
+      <c r="T376" t="s">
+        <v>1404</v>
+      </c>
+      <c r="U376" t="s">
+        <v>1412</v>
+      </c>
+      <c r="V376" t="s">
+        <v>1405</v>
+      </c>
+      <c r="W376" t="s">
+        <v>1406</v>
+      </c>
+      <c r="X376" t="s">
+        <v>1407</v>
+      </c>
+      <c r="Y376" t="s">
+        <v>1408</v>
+      </c>
+      <c r="Z376" t="s">
+        <v>1365</v>
+      </c>
+      <c r="AA376" t="s">
+        <v>1368</v>
+      </c>
+      <c r="AB376" t="s">
+        <v>1370</v>
+      </c>
+      <c r="AC376" t="s">
+        <v>1371</v>
+      </c>
+      <c r="AD376" t="s">
+        <v>1378</v>
+      </c>
+      <c r="AE376" t="s">
+        <v>1384</v>
+      </c>
+      <c r="AF376" t="s">
+        <v>1375</v>
+      </c>
+      <c r="AG376" t="s">
+        <v>1414</v>
+      </c>
+      <c r="AH376" t="s">
+        <v>1386</v>
+      </c>
+      <c r="AI376" t="s">
+        <v>1389</v>
+      </c>
+      <c r="AJ376" t="s">
+        <v>1314</v>
+      </c>
+      <c r="AK376" t="s">
+        <v>1415</v>
+      </c>
+      <c r="AL376" t="s">
+        <v>1416</v>
+      </c>
+      <c r="AM376" t="s">
+        <v>1417</v>
+      </c>
+      <c r="AN376" t="s">
+        <v>1418</v>
+      </c>
+      <c r="AO376" t="s">
+        <v>1419</v>
+      </c>
+      <c r="AP376" t="s">
+        <v>1420</v>
+      </c>
+      <c r="AQ376" t="s">
+        <v>1413</v>
+      </c>
+      <c r="AR376" t="s">
+        <v>1420</v>
+      </c>
+      <c r="AS376" t="s">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="377" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A377"/>
+      <c r="B377"/>
+      <c r="C377"/>
+    </row>
+    <row r="378" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A378"/>
+      <c r="B378"/>
+      <c r="C378"/>
+    </row>
+    <row r="379" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A379"/>
+      <c r="B379"/>
+      <c r="C379"/>
+    </row>
+    <row r="380" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A380"/>
+      <c r="B380"/>
+      <c r="C380"/>
+    </row>
+    <row r="381" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A381"/>
+      <c r="B381"/>
+      <c r="C381"/>
+    </row>
+    <row r="382" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A382"/>
+      <c r="B382"/>
+      <c r="C382"/>
+    </row>
+    <row r="383" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A383"/>
+      <c r="B383"/>
+      <c r="C383"/>
+    </row>
+    <row r="384" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A384"/>
+      <c r="B384"/>
+      <c r="C384"/>
+    </row>
+    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A385"/>
+      <c r="B385"/>
+      <c r="C385"/>
+    </row>
+    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A386"/>
+      <c r="B386"/>
+      <c r="C386"/>
+    </row>
+    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A387"/>
+      <c r="B387"/>
+      <c r="C387"/>
+    </row>
+    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A388"/>
+      <c r="B388"/>
+      <c r="C388"/>
+    </row>
+    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A389"/>
+      <c r="B389"/>
+      <c r="C389"/>
+    </row>
+    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A390"/>
+      <c r="B390"/>
+      <c r="C390"/>
+    </row>
+    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A391"/>
+      <c r="B391"/>
+      <c r="C391"/>
+    </row>
+    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A392"/>
+      <c r="B392"/>
+      <c r="C392"/>
+    </row>
+    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A393"/>
+      <c r="B393"/>
+      <c r="C393"/>
+    </row>
+    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A394"/>
+      <c r="B394"/>
+      <c r="C394"/>
+    </row>
+    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A395"/>
+      <c r="B395"/>
+      <c r="C395"/>
+    </row>
+    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A396"/>
+      <c r="B396"/>
+      <c r="C396"/>
+    </row>
+    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A397"/>
+      <c r="B397"/>
+      <c r="C397"/>
+    </row>
+    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A398"/>
+      <c r="B398"/>
+      <c r="C398"/>
+    </row>
+    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A399"/>
+      <c r="B399"/>
+      <c r="C399"/>
+    </row>
+    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A400"/>
+      <c r="B400"/>
+      <c r="C400"/>
+    </row>
+    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A401"/>
+      <c r="B401"/>
+      <c r="C401"/>
+    </row>
+    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A402"/>
+      <c r="B402"/>
+      <c r="C402"/>
+    </row>
+    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A403"/>
+      <c r="B403"/>
+      <c r="C403"/>
+    </row>
+    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A404"/>
+      <c r="B404"/>
+      <c r="C404"/>
+    </row>
+    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A405"/>
+      <c r="B405"/>
+      <c r="C405"/>
+    </row>
+    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A406"/>
+      <c r="B406"/>
+      <c r="C406"/>
+    </row>
+    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A407"/>
+      <c r="B407"/>
+      <c r="C407"/>
+    </row>
+    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A408"/>
+      <c r="B408"/>
+      <c r="C408"/>
+    </row>
+    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A409"/>
+      <c r="B409"/>
+      <c r="C409"/>
+    </row>
+    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A410"/>
+      <c r="B410"/>
+      <c r="C410"/>
+    </row>
+    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A411"/>
+      <c r="B411"/>
+      <c r="C411"/>
+    </row>
+    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A412"/>
+      <c r="B412"/>
+      <c r="C412"/>
+    </row>
+    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A413"/>
+      <c r="B413"/>
+      <c r="C413"/>
+    </row>
+    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A414"/>
+      <c r="B414"/>
+      <c r="C414"/>
+    </row>
+    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A415"/>
+      <c r="B415"/>
+      <c r="C415"/>
+    </row>
+    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A416"/>
+      <c r="B416"/>
+      <c r="C416"/>
+    </row>
+    <row r="417" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A417"/>
+      <c r="B417"/>
+      <c r="C417"/>
+    </row>
+    <row r="418" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A418"/>
+      <c r="B418"/>
+      <c r="C418"/>
+    </row>
+    <row r="419" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A419"/>
+      <c r="B419"/>
+      <c r="C419"/>
+    </row>
+    <row r="420" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A420"/>
+      <c r="B420"/>
+      <c r="C420"/>
+    </row>
+    <row r="421" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A421"/>
+      <c r="B421"/>
+      <c r="C421"/>
+    </row>
+    <row r="422" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A422"/>
+      <c r="B422"/>
+      <c r="C422"/>
+    </row>
+    <row r="423" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A423"/>
+      <c r="B423"/>
+      <c r="C423"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6807,7 +11000,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection sqref="A1:X45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
